--- a/frame/excel_switch_xml.xlsx
+++ b/frame/excel_switch_xml.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9855"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11835" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="用例" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用例!$A$1:$E$303</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="339">
   <si>
     <t>功能模块</t>
   </si>
@@ -33,961 +36,1010 @@
     <t>备注</t>
   </si>
   <si>
-    <t>3_4G</t>
-  </si>
-  <si>
-    <t>APN拨号号码 ZLBF_7.1.21</t>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>3_4G配置保存重启-自动检测 ZLBF_F_4G_9.1</t>
   </si>
   <si>
     <t>internet</t>
   </si>
   <si>
+    <t>网络切换-桥与3G或4G手动切换 ZLBF_F_4G_5.5</t>
+  </si>
+  <si>
+    <t>网络切换-PPPOE与3G或4G手动切换 ZLBF_F_4G_5.2</t>
+  </si>
+  <si>
+    <t>网络切换-PTPP与3G或4G手动切换 ZLBF_F_4G_5.4</t>
+  </si>
+  <si>
+    <t>网络切换-静态IP与3G或4G手动切换 ZLBF_F_4G_5.3</t>
+  </si>
+  <si>
+    <t>ApMode</t>
+  </si>
+  <si>
+    <t>AP模式-DHCP服务关闭 ZLBF_F_ApMode_1.3</t>
+  </si>
+  <si>
+    <t>apmode</t>
+  </si>
+  <si>
+    <t>AP模式-WAN口状态 ZLBF_F_ApMode_2.7</t>
+  </si>
+  <si>
+    <t>AP模式-切换到路由模式 ZLBF_F_ApMode_1.2</t>
+  </si>
+  <si>
+    <t>AP模式-无线上网 ZLBF_F_ApMode_1.5</t>
+  </si>
+  <si>
+    <t>AP模式-有线上网 ZLBF_F_ApMode_1.4</t>
+  </si>
+  <si>
+    <t>AP模式-路由模式切换到AP模式 ZLBF_F_ApMode_1.1</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>DMZ-IP地址输入测试 ZLBF_F_DMZ_1.3</t>
+  </si>
+  <si>
+    <t>DMZ-恢复出厂参数检测 ZLBF_F_DMZ_2.1</t>
+  </si>
+  <si>
+    <t>DMZ-禁用 ZLBF_F_DMZ_1.2</t>
+  </si>
+  <si>
+    <t>DMZ-开启 ZLBF_F_DMZ_1.1</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>DeviceDomain</t>
+  </si>
+  <si>
+    <t>设备域名-修改域名测试 ZLBF_F_DeviceDomain_1.2</t>
+  </si>
+  <si>
+    <t>设备域名-正常测试 ZLBF_F_DeviceDomain_1.1</t>
+  </si>
+  <si>
+    <t>设备域名-输入测试 ZLBF_F_DeviceDomain_1.3</t>
+  </si>
+  <si>
+    <t>设备域名-重启后测试 ZLBF_F_DeviceDomain_1.4</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>系统诊断-无线WAN ZLBF_F_Diagnostics_1.12</t>
+  </si>
+  <si>
+    <t>高级诊断-无线WAN失败测试 ZLBF_F_Diagnostics_3.14</t>
+  </si>
+  <si>
+    <t>高级诊断-无线WAN正常测试 ZLBF_F_Diagnostics_3.13</t>
+  </si>
+  <si>
+    <t>系统诊断-PPPOE接入方式测试 ZLBF_F_Diagnostics_1.4</t>
+  </si>
+  <si>
+    <t>系统诊断-PPTP接入方式测试 ZLBF_F_Diagnostics_1.6</t>
+  </si>
+  <si>
+    <t>系统诊断-处理器信息 ZLBF_F_Diagnostics_1.9</t>
+  </si>
+  <si>
+    <t>系统诊断-静态IP接入方式测试 ZLBF_F_Diagnostics_1.5</t>
+  </si>
+  <si>
+    <t>高级诊断-3G上网正常测试 ZLBF_F_Diagnostics_3.4</t>
+  </si>
+  <si>
+    <t>高级诊断-PPPOE上网失败测试 ZLBF_F_Diagnostics_3.8</t>
+  </si>
+  <si>
+    <t>高级诊断-WAN上网正常测试 ZLBF_F_Diagnostics_3.6</t>
+  </si>
+  <si>
+    <t>高级诊断-输入值异常测试 ZLBF_F_Diagnostics_3.1</t>
+  </si>
+  <si>
+    <t>高级诊断-输入值测试 ZLBF_F_Diagnostics_3.1</t>
+  </si>
+  <si>
+    <t>高级诊断-静态IP上网失败测试 ZLBF_F_Diagnostics_3.9</t>
+  </si>
+  <si>
+    <t>系统诊断-内存信息 ZLBF_F_Diagnostics_1.10</t>
+  </si>
+  <si>
+    <t>FileSharing</t>
+  </si>
+  <si>
+    <t>文件共享-TF存储关闭共享 ZLBF_F_FileSharing_2.7</t>
+  </si>
+  <si>
+    <t>文件共享-TF存储多级目录文件下载 ZLBF_F_FileSharing_2.6</t>
+  </si>
+  <si>
+    <t>文件共享-TF存储开启共享 ZLBF_F_FileSharing_2.9</t>
+  </si>
+  <si>
+    <t>文件共享-TF存储文件不同格式文件查看 ZLBF_F_FileSharing_2.5</t>
+  </si>
+  <si>
+    <t>文件共享-TF存储文件和文件夹为中文名称 ZLBF_F_FileSharing_2.2</t>
+  </si>
+  <si>
+    <t>文件共享-TF存储文件和文件夹为混合名称 ZLBF_F_FileSharing_2.4</t>
+  </si>
+  <si>
+    <t>文件共享-TF存储文件和文件夹为英文文名称 ZLBF_F_FileSharing_2.3</t>
+  </si>
+  <si>
+    <t>文件共享-TF存储返回按钮测试 ZLBF_F_FileSharing_2.11</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储下载文件时关闭共享 ZLBF_F_FileSharing_1.12</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储关闭共享 ZLBF_F_FileSharing_1.9</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储多级目录文件下载 ZLBF_F_FileSharing_1.7</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储多级目录文件关闭 ZLBF_F_FileSharing_1.10</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储开启共享 ZLBF_F_FileSharing_1.11</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储文件不同格式文件查看 ZLBF_F_FileSharing_1.6</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储文件和文件夹为中文名称 ZLBF_F_FileSharing_1.3</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储文件和文件夹为混合名称 ZLBF_F_FileSharing_1.5</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储文件和文件夹为英文文名称 ZLBF_F_FileSharing_1.4</t>
+  </si>
+  <si>
+    <t>文件共享-USB存储返回按钮测试 ZLBF_F_FileSharing_1.8</t>
+  </si>
+  <si>
+    <t>文件共享-多存储介质访问测试 ZLBF_F_FileSharing_5.1</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>防火墙关闭-IP过滤关闭 ZLBF_F_Firewall_1.1</t>
+  </si>
+  <si>
+    <t>防火墙关闭-IP过滤开启 ZLBF_F_Firewall_2.1</t>
+  </si>
+  <si>
+    <t>防火墙关闭-MAC过滤关闭 ZLBF_F_Firewall_1.2</t>
+  </si>
+  <si>
+    <t>防火墙关闭-MAC过滤开启 ZLBF_F_Firewall_2.2</t>
+  </si>
+  <si>
+    <t>防火墙关闭-URL过滤关闭 ZLBF_F_Firewall_1.3</t>
+  </si>
+  <si>
+    <t>防火墙关闭-URL过滤开启 ZLBF_F_Firewall_2.3</t>
+  </si>
+  <si>
+    <t>防火墙开启-IP过滤关闭 ZLBF_F_Firewall_3.1</t>
+  </si>
+  <si>
+    <t>防火墙开启-URL过滤关闭 ZLBF_F_Firewall_3.3</t>
+  </si>
+  <si>
+    <t>防火墙开启－MAC过滤关闭 ZLBF_F_Firewall_3.2</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>向导-第一步模式选择 ZLBF_F_Guide_1.2</t>
+  </si>
+  <si>
+    <t>向导-第一步跳过 ZLBF_F_Guide_1.3</t>
+  </si>
+  <si>
+    <t>向导-第三步内网设置 ZLBF_F_Guide_1.6</t>
+  </si>
+  <si>
+    <t>向导-第三步跳过 ZLBF_F_Guide_1.7</t>
+  </si>
+  <si>
+    <t>向导-第二步外网设置 ZLBF_F_Guide_1.4</t>
+  </si>
+  <si>
+    <t>向导-第二步跳过 ZLBF_F_Guide_1.5</t>
+  </si>
+  <si>
+    <t>向导-第四步WIFI设置 ZLBF_F_Guide_1.8</t>
+  </si>
+  <si>
+    <t>向导-第四步点击开始使用 ZLBF_F_Guide_1.10</t>
+  </si>
+  <si>
+    <t>向导-第四步跳过 ZLBF_F_Guide_1.9</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>DHCP服务-DHCP服务地址和WAN口地址在同一网段 ZLBF_F_LAN_1.7</t>
+  </si>
+  <si>
+    <t>DHCP服务-地址池正常范围大小修改 ZLBF_F_LAN_1.3</t>
+  </si>
+  <si>
+    <t>DHCP服务-地址池结束IP异常 ZLBF_F_LAN_1.11</t>
+  </si>
+  <si>
+    <t>DHCP服务-地址池起始IP异常 ZLBF_F_LAN_1.10</t>
+  </si>
+  <si>
+    <t>DHCP服务-地址池输入中文和英文验证 ZLBF_F_LAN_1.12</t>
+  </si>
+  <si>
+    <t>DHCP服务-地址池输入特殊字符 ZLBF_F_LAN_1.13</t>
+  </si>
+  <si>
+    <t>DHCP服务-地址池边界值测试 ZLBF_F_LAN_1.9</t>
+  </si>
+  <si>
+    <t>DHCP服务-复位参数检测 ZLBF_F_LAN_2.1</t>
+  </si>
+  <si>
+    <t>DHCP服务-开始地址和结束地址相同 ZLBF_F_LAN_1.5</t>
+  </si>
+  <si>
+    <t>DHCP服务-开始地址大于结束地址 ZLBF_F_LAN_1.6</t>
+  </si>
+  <si>
+    <t>DHCP服务-租约时长输入中文和英文测试 ZLBF_F_LAN_4.2</t>
+  </si>
+  <si>
+    <t>DHCP服务-租约时长输入测试 ZLBF_F_LAN_4.1</t>
+  </si>
+  <si>
+    <t>DHCP服务-租约时长输入特殊字符测试 ZLBF_F_LAN_4.2</t>
+  </si>
+  <si>
+    <t>DHCP服务-续约功能 ZLBF_F_LAN_1.2</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址自动跳转到路由器登陆界面 ZLBF_F_LAN_1.19</t>
+  </si>
+  <si>
+    <t>DHCP服务-禁用与启用 ZLBF_F_LAN_1.1</t>
+  </si>
+  <si>
+    <t>MACFilter</t>
+  </si>
+  <si>
+    <t>MAC过滤--生效失效 ZLBF_F_MACFilter_1.6</t>
+  </si>
+  <si>
+    <t>MAC过滤-开关为关闭 ZLBF_F_MACFilter_1.2</t>
+  </si>
+  <si>
+    <t>MAC过滤-开关为开启 ZLBF_F_MACFilter_1.1</t>
+  </si>
+  <si>
+    <t>MAC过滤-满载配置 ZLBF_F_MACFilter_1.5</t>
+  </si>
+  <si>
+    <t>MAC过滤-规则删除 ZLBF_F_MACFilter_1.4</t>
+  </si>
+  <si>
+    <t>MAC过滤-规则编辑 ZLBF_F_MACFilter_1.3</t>
+  </si>
+  <si>
+    <t>MAC过滤-输入带特殊符号MAC ZLBF_F_MACFilter_2.4</t>
+  </si>
+  <si>
+    <t>MAC过滤-输入带空格MAC ZLBF_F_MACFilter_2.6</t>
+  </si>
+  <si>
+    <t>MAC过滤-输入特殊MAC ZLBF_F_MACFilter_2.3</t>
+  </si>
+  <si>
+    <t>MAC过滤-输入组播MAC ZLBF_F_MACFilter_2.2</t>
+  </si>
+  <si>
+    <t>MAC过滤-输入非法MAC ZLBF_F_MACFilter_2.5</t>
+  </si>
+  <si>
+    <t>MAC过滤-输入非法MAC格式 ZLBF_F_MACFilter_2.1</t>
+  </si>
+  <si>
+    <t>NetworkStatus</t>
+  </si>
+  <si>
+    <t>系统状态-运行时长 ZLBF_F_NetworkStatus_3.3</t>
+  </si>
+  <si>
+    <t>系统状态-无线5G状态 ZLBF_F_NetworkStatus_3.10</t>
+  </si>
+  <si>
+    <t>系统状态-无线5G状态详细信息 ZLBF_F_NetworkStatus_3.12</t>
+  </si>
+  <si>
+    <t>系统状态-无线2.4G状态详细信息 ZLBF_F_NetworkStatus_3.11</t>
+  </si>
+  <si>
+    <t>系统状态-无线2.4状态 ZLBF_F_NetworkStatus_3.9</t>
+  </si>
+  <si>
+    <t>系统状态-无线终端数 ZLBF_F_NetworkStatus_3.13</t>
+  </si>
+  <si>
+    <t>系统状态-WAN口状态 ZLBF_F_NetworkStatus_3.6</t>
+  </si>
+  <si>
+    <t>终端流量统计-流量统计 ZLBF_F_NetworkStatus_2.3</t>
+  </si>
+  <si>
+    <t>终端流量统计-终端显示 ZLBF_F_NetworkStatus_2.2</t>
+  </si>
+  <si>
+    <t>设备列表-修改设备IP ZLBF_F_NetworkStatus_4.5</t>
+  </si>
+  <si>
+    <t>设备列表-静态IP设备 ZLBF_F_NetworkStatus_4.6</t>
+  </si>
+  <si>
+    <t>系统状态-LAN口状态 ZLBF_F_NetworkStatus_3.7</t>
+  </si>
+  <si>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>IP过滤--源IP为IP网段 ZLBF_F_Outbound_1.3</t>
+  </si>
+  <si>
+    <t>IP过滤--源IP为单个IP ZLBF_F_Outbound_1.2</t>
+  </si>
+  <si>
+    <t>IP过滤--目的IP为IP网段 ZLBF_F_Outbound_2.2</t>
+  </si>
+  <si>
+    <t>IP过滤--目的IP为单个IP ZLBF_F_Outbound_2.1</t>
+  </si>
+  <si>
+    <t>IP过滤-IP输入测试 ZLBF_F_Outbound_1.1</t>
+  </si>
+  <si>
+    <t>IP过滤-全部生效测试 ZLBF_F_Outbound_5.2</t>
+  </si>
+  <si>
+    <t>IP过滤-删除规则 ZLBF_F_Outbound_9.3</t>
+  </si>
+  <si>
+    <t>IP过滤-协议过滤 ZLBF_F_Outbound_3.1</t>
+  </si>
+  <si>
+    <t>IP过滤-应用规则测试 ZLBF_F_Outbound_9.1</t>
+  </si>
+  <si>
+    <t>IP过滤-源IP为所有IP ZLBF_F_Outbound_1.4</t>
+  </si>
+  <si>
+    <t>IP过滤-源端口为所有端口 ZLBF_F_Outbound_7.1</t>
+  </si>
+  <si>
+    <t>IP过滤-状态测试 ZLBF_F_Outbound_5.1</t>
+  </si>
+  <si>
+    <t>IP过滤-生效时间 ZLBF_F_Outbound_4.1</t>
+  </si>
+  <si>
+    <t>IP过滤-生效时间输入 ZLBF_F_Outbound_4.2</t>
+  </si>
+  <si>
+    <t>IP过滤-目的端口为所有端口 ZLBF_F_Outbound_6.1</t>
+  </si>
+  <si>
+    <t>IP过滤-编辑规则 ZLBF_F_Outbound_9.2</t>
+  </si>
+  <si>
+    <t>IP过滤-规则重复检查 ZLBF_F_Outbound_9.4</t>
+  </si>
+  <si>
+    <t>QoS</t>
+  </si>
+  <si>
+    <t>QOS-桥接方式下QOS验证 ZLBF_F_QoS_3.15</t>
+  </si>
+  <si>
+    <t>QOS-PPPOE方式下QOS验证 ZLBF_F_QoS_3.11</t>
+  </si>
+  <si>
+    <t>QOS-STATIC方式下QOS验证 ZLBF_F_QoS_3.12</t>
+  </si>
+  <si>
+    <t>QOS-保障最小带宽之和大于总带宽 ZLBF_F_QoS_3.4</t>
+  </si>
+  <si>
+    <t>QOS-修改LAN口IP后规则自动更改 ZLBF_F_QoS_3.2</t>
+  </si>
+  <si>
+    <t>QOS-受限最大带宽之和大于总带宽 ZLBF_F_QoS_3.6</t>
+  </si>
+  <si>
+    <t>QOS-受限最大带宽测试 ZLBF_F_QoS_3.5</t>
+  </si>
+  <si>
+    <t>QOS-子规则关闭 ZLBF_F_QoS_2.1</t>
+  </si>
+  <si>
+    <t>QOS-子规则开启并重启 ZLBF_F_QoS_2.2</t>
+  </si>
+  <si>
+    <t>QOS-子规则结束IP输入无效等价值 ZLBF_F_QoS_2.8</t>
+  </si>
+  <si>
+    <t>QOS-子规则结束IP输入有效等价值与边界值 ZLBF_F_QoS_2.7</t>
+  </si>
+  <si>
+    <t>QOS-子规则结束IP输入非数字 ZLBF_F_QoS_2.9</t>
+  </si>
+  <si>
+    <t>QOS-子规则起始IP输入无效等价值 ZLBF_F_QoS_2.4</t>
+  </si>
+  <si>
+    <t>QOS-子规则起始IP输入有效等价值与边界值 ZLBF_F_QoS_2.3</t>
+  </si>
+  <si>
+    <t>QOS-子规则起始IP输入非数字 ZLBF_F_QoS_2.5</t>
+  </si>
+  <si>
+    <t>QOS-子规则起始结束地址冲突 ZLBF_F_QoS_2.16</t>
+  </si>
+  <si>
+    <t>QOS-开关关闭 ZLBF_F_QoS_1.1</t>
+  </si>
+  <si>
+    <t>QOS-总带宽速率为最大值流量测试 ZLBF_F_QoS_1.8</t>
+  </si>
+  <si>
+    <t>QOS-总带宽速率为最小值流量测试 ZLBF_F_QoS_1.7</t>
+  </si>
+  <si>
+    <t>QOS-总带宽速率为有效值流量测试 ZLBF_F_QoS_1.9</t>
+  </si>
+  <si>
+    <t>QOS-清除规则测试 ZLBF_F_QoS_3.9</t>
+  </si>
+  <si>
+    <t>QOS-重启后QOS验证 ZLBF_F_QoS_3.18</t>
+  </si>
+  <si>
+    <t>RemoteAccess</t>
+  </si>
+  <si>
+    <t>远程管理--允许所有主机访问 ZLBF_F_RemoteAccess_1.1</t>
+  </si>
+  <si>
+    <t>远程管理--指定开放端口 ZLBF_F_RemoteAccess_1.2</t>
+  </si>
+  <si>
+    <t>远程管理-各种接入方式下的远程管理 ZLBF_F_RemoteAccess_1.4</t>
+  </si>
+  <si>
+    <t>远程管理-备份与恢复功能测试 ZLBF_F_RemoteAccess_1.7</t>
+  </si>
+  <si>
+    <t>远程管理-开放已经占用的端口 ZLBF_F_RemoteAccess_1.3</t>
+  </si>
+  <si>
+    <t>远程管理-恢复出厂设置 ZLBF_F_RemoteAccess_1.6</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>ARP 攻击 ZLBF_F_Security_1.9</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>ARP 欺骗 ZLBF_F_Security_1.10</t>
+  </si>
+  <si>
+    <t>ICMP洪泛攻击 ZLBF_F_Security_1.1</t>
+  </si>
+  <si>
+    <t>LAN ATTACK ZLBF_F_Security_1.12</t>
+  </si>
+  <si>
+    <t>PING OF DEATH ZLBF_F_Security_1.11</t>
+  </si>
+  <si>
+    <t>TCP FIN NO ACK ZLBF_F_Security_1.6</t>
+  </si>
+  <si>
+    <t>TCP SYN FIN ZLBF_F_Security_1.5</t>
+  </si>
+  <si>
+    <t>TCP SYN洪泛攻击 ZLBF_F_Security_1.2</t>
+  </si>
+  <si>
+    <t>TCP随机报文 ZLBF_F_Security_1.7</t>
+  </si>
+  <si>
+    <t>UDP洪泛攻击 ZLBF_F_Security_1.3</t>
+  </si>
+  <si>
+    <t>UDP随机报文 ZLBF_F_Security_1.8</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>系统配置-路由模式下导出导入配置文件 ZLBF_F_System_4.6</t>
+  </si>
+  <si>
+    <t>本地升级-低版本升测试版本 ZLBF_F_System_1.10</t>
+  </si>
+  <si>
+    <t>本地升级-修改正确的升级文件后升级 ZLBF_F_System_1.3</t>
+  </si>
+  <si>
+    <t>本地升级-同版本之间升级 ZLBF_F_System_1.11</t>
+  </si>
+  <si>
+    <t>本地升级-测试版本升低版本 ZLBF_F_System_1.9</t>
+  </si>
+  <si>
+    <t>本地升级-选择其它方案的升级文件升级 ZLBF_F_System_1.4</t>
+  </si>
+  <si>
+    <t>本地升级-选择同方案的超大升级文件升级 ZLBF_F_System_1.5</t>
+  </si>
+  <si>
+    <t>本地升级-非法文件格式升级 ZLBF_F_System_1.2</t>
+  </si>
+  <si>
+    <t>恢复出厂-命令恢复出厂设置 ZLBF_F_System_3.3</t>
+  </si>
+  <si>
+    <t>重启-软件重启功能测试 ZLBF_F_System_5.1</t>
+  </si>
+  <si>
+    <t>系统配置-导出配置功能测试浏览器下载 ZLBF_F_System_4.1</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>系统配置-非法备份配置文件检测 ZLBF_F_System_4.5</t>
+  </si>
+  <si>
+    <t>恢复出厂-PPPOE接入方式下恢复出厂设置 ZLBF_F_System_3.1</t>
+  </si>
+  <si>
+    <t>恢复出厂-PPTP接入方式下恢复出厂设置 ZLBF_F_System_3.4</t>
+  </si>
+  <si>
+    <t>本地升级-本地WEB软件升级测试 ZLBF_F_System_1.1</t>
+  </si>
+  <si>
+    <t>系统配置-导入配置文件 ZLBF_F_System_4.3</t>
+  </si>
+  <si>
+    <t>账号管理-密码长度 ZLBF_F_System_6.4</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>账号管理-新账户登录 ZLBF_F_System_6.9</t>
+  </si>
+  <si>
+    <t>账号管理-旧账户登录 ZLBF_F_System_6.8</t>
+  </si>
+  <si>
+    <t>账号管理-用户名长度 ZLBF_F_System_6.1</t>
+  </si>
+  <si>
+    <t>账号管理-非法密码 ZLBF_F_System_6.6</t>
+  </si>
+  <si>
+    <t>账号管理-非法密码长度 ZLBF_F_System_6.5</t>
+  </si>
+  <si>
+    <t>账号管理-非法用户名 ZLBF_F_System_6.3</t>
+  </si>
+  <si>
+    <t>账号管理-非法用户名长度 ZLBF_F_System_6.2</t>
+  </si>
+  <si>
+    <t>路由器登录-注销功能测试 ZLBF_F_System_7.7</t>
+  </si>
+  <si>
+    <t>路由器登录-超时时间测试 ZLBF_F_System_7.6</t>
+  </si>
+  <si>
+    <t>路由器登录-默认账户 ZLBF_F_System_7.1</t>
+  </si>
+  <si>
+    <t>TimingReboot</t>
+  </si>
+  <si>
+    <t>一次重启测试 ZLBF_F_TimingReboot_2.1</t>
+  </si>
+  <si>
+    <t>URLFilter</t>
+  </si>
+  <si>
+    <t>URL过滤--白名单 ZLBF_F_URLFilter_1.2</t>
+  </si>
+  <si>
+    <t>URL过滤--黑名单 ZLBF_F_URLFilter_1.1</t>
+  </si>
+  <si>
+    <t>URL过滤白名单-删除 ZLBF_F_URLFilter_2.7</t>
+  </si>
+  <si>
+    <t>URL过滤白名单-添加 ZLBF_F_URLFilter_2.6</t>
+  </si>
+  <si>
+    <t>URL过滤白名单-清除规则列表 ZLBF_F_URLFilter_2.8</t>
+  </si>
+  <si>
+    <t>URL过滤白名单-规则重复性判断 ZLBF_F_URLFilter_3.2</t>
+  </si>
+  <si>
+    <t>URL过滤白名单-输入异常测试 ZLBF_F_URLFilter_2.9</t>
+  </si>
+  <si>
+    <t>URL过滤白名单-重启测试 ZLBF_F_URLFilter_2.10</t>
+  </si>
+  <si>
+    <t>URL过滤黑名单-删除 ZLBF_F_URLFilter_1.4</t>
+  </si>
+  <si>
+    <t>URL过滤黑名单-删除所有规则列表 ZLBF_F_URLFilter_2.3</t>
+  </si>
+  <si>
+    <t>URL过滤黑名单-添加 ZLBF_F_URLFilter_1.3</t>
+  </si>
+  <si>
+    <t>URL过滤黑名单-规则重复性判断 ZLBF_F_URLFilter_3.1</t>
+  </si>
+  <si>
+    <t>URL过滤黑名单-输入异常测试 ZLBF_F_URLFilter_2.4</t>
+  </si>
+  <si>
+    <t>URL过滤黑名单-重启测试 ZLBF_F_URLFilter_2.5</t>
+  </si>
+  <si>
+    <t>VirtualServer</t>
+  </si>
+  <si>
+    <t>虚拟服务器-IP输入测试 ZLBF_F_VirtualServer_1.2</t>
+  </si>
+  <si>
+    <t>虚拟服务器-修改网关IP ZLBF_F_VirtualServer_1.4</t>
+  </si>
+  <si>
+    <t>虚拟服务器-全部删除 ZLBF_F_VirtualServer_3.3</t>
+  </si>
+  <si>
+    <t>虚拟服务器-启用 ZLBF_F_VirtualServer_1.1</t>
+  </si>
+  <si>
+    <t>虚拟服务器-添加满容量规则 ZLBF_F_VirtualServer_3.5</t>
+  </si>
+  <si>
+    <t>虚拟服务器-端口输入测试 ZLBF_F_VirtualServer_1.3</t>
+  </si>
+  <si>
+    <t>虚拟服务器-规则编辑 ZLBF_F_VirtualServer_3.1</t>
+  </si>
+  <si>
+    <t>虚拟服务器-规则非顺序删除 ZLBF_F_VirtualServer_3.2</t>
+  </si>
+  <si>
+    <t>虚拟服务器-重启与复位 ZLBF_F_VirtualServer_2.1</t>
+  </si>
+  <si>
+    <t>虚拟服务器-禁用 ZLBF_F_VirtualServer_3.4</t>
+  </si>
+  <si>
+    <t>WAN</t>
+  </si>
+  <si>
+    <t>DHCPC-DHCPC方式下MAC克隆 ZLBF_F_WAN_1.8</t>
+  </si>
+  <si>
+    <t>PPPoE-MAC克隆 ZLBF_F_WAN_3.18</t>
+  </si>
+  <si>
+    <t>PPPoE-MAC有效性检测 ZLBF_F_WAN_3.19</t>
+  </si>
+  <si>
+    <t>PPTP-MAC克隆 ZLBF_F_WAN_4.20</t>
+  </si>
+  <si>
+    <t>静态IP-MAC克隆 ZLBF_F_WAN_2.8</t>
+  </si>
+  <si>
+    <t>DHCPC-动态获取DNS地址 ZLBF_F_WAN_1.3</t>
+  </si>
+  <si>
+    <t>DHCPC-复位检测 ZLBF_F_WAN_1.10</t>
+  </si>
+  <si>
+    <t>DHCPC-自动续约IP地址 ZLBF_F_WAN_1.2</t>
+  </si>
+  <si>
+    <t>PPPoE-CHAP-MD5 ZLBF_F_WAN_3.3</t>
+  </si>
+  <si>
+    <t>PPPoE-MS-CHAPv1 ZLBF_F_WAN_3.4</t>
+  </si>
+  <si>
+    <t>PPPoE-MS-CHAPv2 ZLBF_F_WAN_3.5</t>
+  </si>
+  <si>
+    <t>PPPoE-PAP认证 ZLBF_F_WAN_3.2</t>
+  </si>
+  <si>
+    <t>PPPoE-WAN接入切换 ZLBF_F_WAN_3.13</t>
+  </si>
+  <si>
+    <t>PPPoE-正常拨号 ZLBF_F_WAN_3.1</t>
+  </si>
+  <si>
+    <t>PPPoE-用户名与密码有效性测试 ZLBF_F_WAN_3.17</t>
+  </si>
+  <si>
+    <t>PPPoE-用户名与密码长度 ZLBF_F_WAN_3.16</t>
+  </si>
+  <si>
+    <t>PPPoE-自动获取DNS基本功能测试 ZLBF_F_WAN_3.6</t>
+  </si>
+  <si>
+    <t>PPPoE-账号反复拔号测试 ZLBF_F_WAN_3.10</t>
+  </si>
+  <si>
+    <t>PPTP-CHAP-MD5 ZLBF_F_WAN_4.5</t>
+  </si>
+  <si>
+    <t>PPTP-DHCPC接入方式下PPTP拨号 ZLBF_F_WAN_4.1</t>
+  </si>
+  <si>
+    <t>PPTP-MS-CHAPv1 ZLBF_F_WAN_4.6</t>
+  </si>
+  <si>
+    <t>PPTP-MS-CHAPv2 ZLBF_F_WAN_4.7</t>
+  </si>
+  <si>
+    <t>PPTP-PAP认证 ZLBF_F_WAN_4.4</t>
+  </si>
+  <si>
+    <t>PPTP-WAN接入切换 ZLBF_F_WAN_4.18</t>
+  </si>
+  <si>
+    <t>PPTP-断电重启 ZLBF_F_WAN_4.17</t>
+  </si>
+  <si>
+    <t>PPTP-服务器IP地址合法性检测 ZLBF_F_WAN_4.21</t>
+  </si>
+  <si>
+    <t>PPTP-账号反复拔号测试 ZLBF_F_WAN_4.14</t>
+  </si>
+  <si>
+    <t>静态IP-DNS异常输入测试 ZLBF_F_WAN_2.7</t>
+  </si>
+  <si>
+    <t>静态IP-IP地址异常输入测试 ZLBF_F_WAN_2.4</t>
+  </si>
+  <si>
+    <t>静态IP-基本功能测试 ZLBF_F_WAN_2.1</t>
+  </si>
+  <si>
+    <t>静态IP-掩码异常输入测试 ZLBF_F_WAN_2.5</t>
+  </si>
+  <si>
+    <t>静态IP-更改DNS有效性 ZLBF_F_WAN_2.2</t>
+  </si>
+  <si>
+    <t>静态IP-正常输入测试 ZLBF_F_WAN_2.3</t>
+  </si>
+  <si>
+    <t>静态IP-网关异常输入测试 ZLBF_F_WAN_2.6</t>
+  </si>
+  <si>
+    <t>DHCPC-基本功能测试 ZLBF_F_WAN_1.1</t>
+  </si>
+  <si>
+    <t>WLAN</t>
+  </si>
+  <si>
+    <t>2.4G-WPAWPA2-PSK密钥输入为空测试 ZLBF_F_WLAN_2.4</t>
+  </si>
+  <si>
+    <t>2.4G-WPAWPA2-PSK密钥输入正常测试 ZLBF_F_WLAN_2.1</t>
+  </si>
+  <si>
+    <t>2.4G-WPAWPA2-PSK密钥输入特殊字符测试 ZLBF_F_WLAN_2.2</t>
+  </si>
+  <si>
+    <t>2.4G-WPAWPA2-PSK密钥输入空格测试 ZLBF_F_WLAN_2.3</t>
+  </si>
+  <si>
+    <t>2.4G-WPAWPA2-PSK密钥输入长度范围异常测试 ZLBF_F_WLAN_2.6</t>
+  </si>
+  <si>
+    <t>2.4G-WPAWPA2-PSK密钥输入长度范围测试 ZLBF_F_WLAN_2.5</t>
+  </si>
+  <si>
+    <t>2.4G-信号强度测试 ZLBF_F_WLAN_3.1</t>
+  </si>
+  <si>
+    <t>2.4G-指定信道选择测试 ZLBF_F_WLAN_8.2</t>
+  </si>
+  <si>
+    <t>2.4G-无线SSID输入字母和数字测试 ZLBF_F_WLAN_1.1</t>
+  </si>
+  <si>
+    <t>2.4G-无线SSID输入特殊字符测试 ZLBF_F_WLAN_1.2</t>
+  </si>
+  <si>
+    <t>2.4G-无线SSID输入空格测试 ZLBF_F_WLAN_1.3</t>
+  </si>
+  <si>
+    <t>2.4G-无线SSID长度范围异常测试 ZLBF_F_WLAN_1.6</t>
+  </si>
+  <si>
+    <t>2.4G-无线SSID长度范围测试 ZLBF_F_WLAN_1.5</t>
+  </si>
+  <si>
+    <t>2.4G-无线总开关关闭 ZLBF_F_WLAN_6.2</t>
+  </si>
+  <si>
+    <t>2.4G-无线总开关开启 ZLBF_F_WLAN_6.1</t>
+  </si>
+  <si>
+    <t>2.4G-最大连接数输入值为为小数 ZLBF_F_WLAN_5.4</t>
+  </si>
+  <si>
+    <t>2.4G-最大连接数输入值为正常值 ZLBF_F_WLAN_5.1</t>
+  </si>
+  <si>
+    <t>2.4G-最大连接数输入值为空 ZLBF_F_WLAN_5.3</t>
+  </si>
+  <si>
+    <t>2.4G-最大连接数输入值为负数 ZLBF_F_WLAN_5.5</t>
+  </si>
+  <si>
+    <t>2.4G-最大连接数输入值为非数字的其他字符 ZLBF_F_WLAN_5.6</t>
+  </si>
+  <si>
+    <t>2.4G-最大连接数输入值带空格 ZLBF_F_WLAN_5.7</t>
+  </si>
+  <si>
+    <t>2.4G-最大连接数输入值超出限制范围 ZLBF_F_WLAN_5.2</t>
+  </si>
+  <si>
+    <t>2.4G-自动信道选择测试 ZLBF_F_WLAN_8.1</t>
+  </si>
+  <si>
+    <t>WLAN5G</t>
+  </si>
+  <si>
+    <t>5G-最大连接数输入值为为小数 ZLBF_F_WLAN5G_5.4</t>
+  </si>
+  <si>
+    <t>5G-最大连接数输入值为正常值 ZLBF_F_WLAN5G_5.1</t>
+  </si>
+  <si>
+    <t>5G-最大连接数输入值为空 ZLBF_F_WLAN5G_5.3</t>
+  </si>
+  <si>
+    <t>5G-最大连接数输入值为负数 ZLBF_F_WLAN5G_5.5</t>
+  </si>
+  <si>
+    <t>5G-最大连接数输入值为非数字的其他字符 ZLBF_F_WLAN5G_5.6</t>
+  </si>
+  <si>
+    <t>5G-最大连接数输入值带空格 ZLBF_F_WLAN5G_5.7</t>
+  </si>
+  <si>
+    <t>5G-最大连接数输入值超出限制范围 ZLBF_F_WLAN5G_5.2</t>
+  </si>
+  <si>
+    <t>WlanWan</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA-AES加密测试1 ZLBF_F_WlanWan_1.5</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA-AES加密测试2 ZLBF_F_WlanWan_1.6</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA-AES加密测试3 ZLBF_F_WlanWan_1.7</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA-AES加密测试4 ZLBF_F_WlanWan_1.8</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA-TKIP加密测试1 ZLBF_F_WlanWan_1.1</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA-TKIP加密测试2 ZLBF_F_WlanWan_1.2</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA-TKIP加密测试3 ZLBF_F_WlanWan_1.3</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA-TKIP加密测试4 ZLBF_F_WlanWan_1.4</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA2-AES加密测试1 ZLBF_F_WlanWan_1.9</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA2-AES加密测试2 ZLBF_F_WlanWan_1.10</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA2-AES加密测试3 ZLBF_F_WlanWan_1.11</t>
+  </si>
+  <si>
+    <t>无线WAN-WPA2-AES加密测试4 ZLBF_F_WlanWan_1.12</t>
+  </si>
+  <si>
+    <t>无线WAN-修改上行网络信道测试 ZLBF_F_WlanWan_1.24</t>
+  </si>
+  <si>
+    <t>无线WAN-无加密测试1 ZLBF_F_WlanWan_1.15</t>
+  </si>
+  <si>
+    <t>无线WAN-无加密测试2 ZLBF_F_WlanWan_1.16</t>
+  </si>
+  <si>
+    <t>无线WAN-无加密测试3 ZLBF_F_WlanWan_1.17</t>
+  </si>
+  <si>
+    <t>无线WAN-无加密测试4 ZLBF_F_WlanWan_1.18</t>
+  </si>
+  <si>
+    <t>无线WAN-重启上行AP后自动关联 ZLBF_F_WlanWan_1.25</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>有线-移动3_4G切换 ZLBF_7.1.26</t>
-  </si>
-  <si>
-    <t>3_4G配置保存重启-自动检测 ZLBF_7.1.77</t>
-  </si>
-  <si>
-    <t>PPPOE-3_4G手动切换 ZLBF_7.1.33</t>
-  </si>
-  <si>
-    <t>STATIC-3_4G手动切换 ZLBF_7.1.34</t>
-  </si>
-  <si>
-    <t>PPTP-3_4G手动切换 ZLBF_7.1.35</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为正常值 ZLBF_11.1.30</t>
-  </si>
-  <si>
-    <t>最大连接数输入值超出限制范围 ZLBF_11.1.31</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为空 ZLBF_11.1.32</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为为小数 ZLBF_11.1.33</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为负数 ZLBF_11.1.34</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为非数字的其他字符 ZLBF_11.1.35</t>
-  </si>
-  <si>
-    <t>最大连接数输入值带空格 ZLBF_11.1.36</t>
-  </si>
-  <si>
-    <t>无线5G状态 ZLBF_5.1.36</t>
-  </si>
-  <si>
-    <t>无线5G状态更多 ZLBF_5.1.38</t>
-  </si>
-  <si>
-    <t>apmode</t>
-  </si>
-  <si>
-    <t>路由模式切换到AP模式 ZLBF_ApMode_1.1.1</t>
-  </si>
-  <si>
-    <t>AP模式切换到路由模式 ZLBF_ApMode_1.1.2</t>
-  </si>
-  <si>
-    <t>AP模式下关闭自身DHCP ZLBF_ApMode_1.1.3</t>
-  </si>
-  <si>
-    <t>AP模式有线上网 ZLBF_ApMode_1.1.4</t>
-  </si>
-  <si>
-    <t>AP模式无线上网 ZLBF_ApMode_1.1.5</t>
-  </si>
-  <si>
-    <t>WAN口状态 ZLBF_ApMode_2.1.7</t>
-  </si>
-  <si>
-    <t>backup</t>
-  </si>
-  <si>
-    <t>导出配置功能测试浏览器下载 ZLBF_21.1.37</t>
-  </si>
-  <si>
-    <t>非法备份配置文件检测 ZLBF_21.1.41</t>
-  </si>
-  <si>
-    <t>bridge</t>
-  </si>
-  <si>
-    <t>桥接方式下QOS验证 ZLBF_27.1.22</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA-TKIP加密测试 ZLBM_1.1.9.1</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA-TKIP加密测试 ZLBM_1.1.9.2</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA-TKIP加密测试 ZLBM_1.1.9.3</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA-TKIP加密测试 ZLBM_1.1.9.4</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA-AES加密测试 ZLBM_1.1.10.1</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA-AES加密测试 ZLBM_1.1.10.2</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA-AES加密测试 ZLBM_1.1.10.3</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA-AES加密测试 ZLBM_1.1.10.4</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA2-AES加密测试 ZLBM_1.1.12.1</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA2-AES加密测试 ZLBM_1.1.12.2</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA2-AES加密测试 ZLBM_1.1.12.3</t>
-  </si>
-  <si>
-    <t>桥接模式-WPA2-AES加密测试 ZLBM_1.1.12.4</t>
-  </si>
-  <si>
-    <t>桥接模式-无加密测试 ZLBM_1.1.14.1</t>
-  </si>
-  <si>
-    <t>桥接模式-无加密测试 ZLBM_1.1.14.2</t>
-  </si>
-  <si>
-    <t>桥接模式-无加密测试 ZLBM_1.1.14.3</t>
-  </si>
-  <si>
-    <t>桥接模式-无加密测试 ZLBM_1.1.14.4</t>
-  </si>
-  <si>
-    <t>桥接模式修改上行网络信道测试 ZLBM_1.1.19</t>
-  </si>
-  <si>
-    <t>重启上行AP后自动桥接 ZLBM_1.1.21</t>
-  </si>
-  <si>
-    <t>系统诊断测试-无线WAN ZLBF_4.1.29</t>
-  </si>
-  <si>
-    <t>高级诊断-无线WAN正常测试 ZLBF_4.1.31</t>
-  </si>
-  <si>
-    <t>高级诊断-无线WAN失败测试 ZLBF_4.1.32</t>
-  </si>
-  <si>
-    <t>桥-3_4G手动切换 ZLBF_7.1.37</t>
-  </si>
-  <si>
-    <t>clonemac</t>
-  </si>
-  <si>
-    <t>DHCP-DHCP MAC克隆 ZLBF_6.1.10</t>
-  </si>
-  <si>
-    <t>静态IP-MAC克隆 ZLBF_6.1.20</t>
-  </si>
-  <si>
-    <t>PPPoE-MAC克隆 ZLBF_6.1.38</t>
-  </si>
-  <si>
-    <t>PPTP-MAC克隆 ZLBF_6.1.59</t>
-  </si>
-  <si>
-    <t>PPPoE-MAC有效性检测 ZLBF_6.1.39</t>
-  </si>
-  <si>
-    <t>device_list</t>
-  </si>
-  <si>
-    <t>已连接设备列表-修改设备IP ZLBF_5.1.28</t>
-  </si>
-  <si>
-    <t>已连接设备列表-静态IP设备 ZLBF_5.1.30</t>
-  </si>
-  <si>
-    <t>dhcp_server</t>
-  </si>
-  <si>
-    <t>DHCP服务器-地址池起始IP边界异常 ZLBF_8.1.10</t>
-  </si>
-  <si>
-    <t>DHCP服务器-地址池结束IP边界异常 ZLBF_8.1.11</t>
-  </si>
-  <si>
-    <t>DHCP服务器-地址池边界值 ZLBF_8.1.9</t>
-  </si>
-  <si>
-    <t>DHCP服务器-地址池输入特殊字符 ZLBF_8.1.14</t>
-  </si>
-  <si>
-    <t>DHCP服务器-复位参数检测 ZLBF_8.1.24</t>
-  </si>
-  <si>
-    <t>DHCP服务器-开始地址大于结束地址 ZLBF_8.1.6</t>
-  </si>
-  <si>
-    <t>DHCP服务器-开始地址和结束地址相同 ZLBF_8.1.5</t>
-  </si>
-  <si>
-    <t>DHCP服务器-租约时长输入测试 ZLBF_8.1.26</t>
-  </si>
-  <si>
-    <t>DHCP服务器-租约时长输入特殊字符测试 ZLBF_8.1.27</t>
-  </si>
-  <si>
-    <t>DHCP服务器-租约时长输入中文和英文测试 ZLBF_8.1.28</t>
-  </si>
-  <si>
-    <t>DHCP服务器-地址池正常范围大小修改 ZLBF_8.1.4</t>
-  </si>
-  <si>
-    <t>DHCP服务器-DHCP地址和wan口地址在同一网段 ZLBF_8.1.7</t>
-  </si>
-  <si>
-    <t>DHCP服务器-续约功能 ZLBF_8.1.2</t>
-  </si>
-  <si>
-    <t>DHCP服务器-地址池输入中文和英文验证 ZLBF_8.1.13</t>
-  </si>
-  <si>
-    <t>DHCP服务器-地址池修改 ZLBF_8.1.3</t>
-  </si>
-  <si>
-    <t>DHCPC-动态获取DNS地址 ZLBF_6.1.4</t>
-  </si>
-  <si>
-    <t>DHCPC-自动续约IP 地址 ZLBF_6.1.3</t>
-  </si>
-  <si>
-    <t>DHCPC-复位检测 ZLBF_6.1.12</t>
-  </si>
-  <si>
-    <t>DHCP服务器--更改LAN口IP地址 ZLBF_8.1.7</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
-  <si>
-    <t>DHCP服务器-禁用与启用 ZLBF_8.1.1</t>
-  </si>
-  <si>
-    <t>diagnose</t>
-  </si>
-  <si>
-    <t>系统诊断测试-PPPOE ZLBF_4.1.4</t>
-  </si>
-  <si>
-    <t>系统诊断测试-静态IP ZLBF_4.1.5</t>
-  </si>
-  <si>
-    <t>系统诊断测试-PPTP ZLBF_4.1.6</t>
-  </si>
-  <si>
-    <t>处理器信息 ZLBF_4.1.9</t>
-  </si>
-  <si>
-    <t>高级诊断-输入值测试 ZLBF_4.1.17</t>
-  </si>
-  <si>
-    <t>高级诊断-输入值异常测试 ZLBF_4.1.18</t>
-  </si>
-  <si>
-    <t>高级诊断-PPPOE上网失败测试 ZLBF_4.1.23.1</t>
-  </si>
-  <si>
-    <t>高级诊断-静态IP上网失败测试 ZLBF_4.1.23.2</t>
-  </si>
-  <si>
-    <t>高级诊断-3G上网正常测试 ZLBF_4.1.20</t>
-  </si>
-  <si>
-    <t>高级诊断-WAN上网正常测试 ZLBF_4.1.22</t>
-  </si>
-  <si>
-    <t>dmz</t>
-  </si>
-  <si>
-    <t>虚拟服务器-启用 ZLBF_17.1.1</t>
-  </si>
-  <si>
-    <t>DMZ-禁用 ZLBF_18.1.2</t>
-  </si>
-  <si>
-    <t>虚拟服务器-IP输入测试 ZLBF_17.1.2</t>
-  </si>
-  <si>
-    <t>虚拟服务器-端口输入测试 ZLBF_17.1.3</t>
-  </si>
-  <si>
-    <t>虚拟服务器-修改网关IP ZLBF_17.1.4</t>
-  </si>
-  <si>
-    <t>虚拟服务器-重启与复位 ZLBF_17.1.5</t>
-  </si>
-  <si>
-    <t>虚拟服务器-规则编辑 ZLBF_17.1.6</t>
-  </si>
-  <si>
-    <t>虚拟服务器-规则非顺序删除 ZLBF_17.1.7</t>
-  </si>
-  <si>
-    <t>虚拟服务器-全部删除 ZLBF_17.1.8</t>
-  </si>
-  <si>
-    <t>虚拟服务器-添加满容量规则 ZLBF_17.1.10</t>
-  </si>
-  <si>
-    <t>恢复出厂参数检测 ZLBF_18.1.4</t>
-  </si>
-  <si>
-    <t>DMZ-IP地址输入测试 ZLBF_18.1.3</t>
-  </si>
-  <si>
-    <t>DMZ-开启 ZLBF_18.1.1</t>
-  </si>
-  <si>
-    <t>虚拟服务器--禁用 ZLBF_17.1.9</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>设备域名-正常测试 ZLBF_30.1.10</t>
-  </si>
-  <si>
-    <t>设备域名-修改域名测试 ZLBF_30.1.11</t>
-  </si>
-  <si>
-    <t>设备域名-输入测试 ZLBF_30.1.12</t>
-  </si>
-  <si>
-    <t>设备域名-重启后测试 ZLBF_30.1.13</t>
-  </si>
-  <si>
-    <t>file_share</t>
-  </si>
-  <si>
-    <t>关闭共享 ZLBF_13.1.20</t>
-  </si>
-  <si>
-    <t>开启共享 ZLBF_13.1.22</t>
-  </si>
-  <si>
-    <t>文件和文件夹为中文名称 ZLBF_13.1.3</t>
-  </si>
-  <si>
-    <t>文件和文件夹为英文文名称 ZLBF_13.1.4</t>
-  </si>
-  <si>
-    <t>文件共享-文件名和文件夹名为混合名称 ZLBF_13.1.5</t>
-  </si>
-  <si>
-    <t>文件共享-文件内容中英文混合 ZLBF_13.1.6</t>
-  </si>
-  <si>
-    <t>多级目录文件下载 ZLBF_13.1.7</t>
-  </si>
-  <si>
-    <t>进入文件共享点击返回 ZLBF_13.1.8</t>
-  </si>
-  <si>
-    <t>文件和文件夹为中文名称 ZLBF_13.1.11</t>
-  </si>
-  <si>
-    <t>文件和文件夹为英文文名称 ZLBF_13.1.12</t>
-  </si>
-  <si>
-    <t>文件共享-文件名和文件夹名为混合名称 ZLBF_13.1.13</t>
-  </si>
-  <si>
-    <t>文件共享-文件内容中英文混合 ZLBF_13.1.14</t>
-  </si>
-  <si>
-    <t>多级目录文件下载 ZLBF_13.1.15</t>
-  </si>
-  <si>
-    <t>进入文件共享点击返回 ZLBF_13.1.16</t>
-  </si>
-  <si>
-    <t>多级目录文件关闭 ZLBF_13.1.21</t>
-  </si>
-  <si>
-    <t>下载文件时关闭共享 ZLBF_13.1.23</t>
-  </si>
-  <si>
-    <t>多存储介质访问测试 ZLBF_13.1.30</t>
-  </si>
-  <si>
-    <t>ip_filter</t>
-  </si>
-  <si>
-    <t>IP过滤--源IP为单个IP ZLBF_15.1.2</t>
-  </si>
-  <si>
-    <t>IP过滤--源IP为IP网段 ZLBF_15.1.3</t>
-  </si>
-  <si>
-    <t>IP过滤--目的IP为单个IP ZLBF_15.1.5</t>
-  </si>
-  <si>
-    <t>IP过滤--目的IP为IP网段 ZLBF_15.1.6</t>
-  </si>
-  <si>
-    <t>防火墙关闭-IP过滤关闭 ZLBF_29.1.1</t>
-  </si>
-  <si>
-    <t>防火墙关闭-IP过滤开启 ZLBF_29.1.4</t>
-  </si>
-  <si>
-    <t>防火墙开启-IP过滤关闭 ZLBF_29.1.7</t>
-  </si>
-  <si>
-    <t>IP过滤-IP输入测试 ZLBF_15.1.1</t>
-  </si>
-  <si>
-    <t>IP过滤-源IP为所有IP ZLBF_15.1.4</t>
-  </si>
-  <si>
-    <t>IP过滤-TCP_UDP协议过滤 ZLBF_15.1.7</t>
-  </si>
-  <si>
-    <t>IP过滤-生效时间 ZLBF_15.1.8</t>
-  </si>
-  <si>
-    <t>IP过滤-生效时间输入 ZLBF_15.1.9</t>
-  </si>
-  <si>
-    <t>IP过滤-状态测试 ZLBF_15.1.10</t>
-  </si>
-  <si>
-    <t>IP过滤-全部生效测试 ZLBF_15.1.11</t>
-  </si>
-  <si>
-    <t>IP过滤-目的端口为所有端口 ZLBF_15.1.12</t>
-  </si>
-  <si>
-    <t>IP过滤-源端口为所有端口 ZLBF_15.1.14</t>
-  </si>
-  <si>
-    <t>IP过滤-应用规则测试 ZLBF_15.1.18</t>
-  </si>
-  <si>
-    <t>IP过滤-编辑规则 ZLBF_15.1.19</t>
-  </si>
-  <si>
-    <t>IP过滤-删除规则 ZLBF_15.1.20</t>
-  </si>
-  <si>
-    <t>IP过滤-规则重复检查 ZLBF_15.1.21</t>
-  </si>
-  <si>
-    <t>mac_filter</t>
-  </si>
-  <si>
-    <t>MAC过滤-开关为开启 ZLBF_28.1.1</t>
-  </si>
-  <si>
-    <t>MAC过滤-开关为关闭 ZLBF_28.1.2</t>
-  </si>
-  <si>
-    <t>MAC过滤--生效失效 ZLBF_28.1.6</t>
-  </si>
-  <si>
-    <t>MAC过滤-输入合理性 ZLBF_28.1.7</t>
-  </si>
-  <si>
-    <t>防火墙关闭-MAC过滤开启 ZLBF_29.1.5</t>
-  </si>
-  <si>
-    <t>防火墙开启－MAC过滤关闭 ZLBF_29.1.8</t>
-  </si>
-  <si>
-    <t>防火墙关闭-MAC过滤关闭 ZLBF_29.1.2</t>
-  </si>
-  <si>
-    <t>MAC过滤-规则编辑 ZLBF_28.1.3</t>
-  </si>
-  <si>
-    <t>MAC过滤-规则删除 ZLBF_28.1.4</t>
-  </si>
-  <si>
-    <t>MAC过滤-满载配置 ZLBF_28.1.5</t>
-  </si>
-  <si>
-    <t>pppoe</t>
-  </si>
-  <si>
-    <t>PPPoE-PAP认证 ZLBF_6.1.22</t>
-  </si>
-  <si>
-    <t>PPPoE-CHAP-MD5 ZLBF_6.1.23</t>
-  </si>
-  <si>
-    <t>PPPoE-MS-CHAPv1 ZLBF_6.1.24</t>
-  </si>
-  <si>
-    <t>PPPoE-MS-CHAPv2 ZLBF_6.1.25</t>
-  </si>
-  <si>
-    <t>PPPoE-自动获取DNS基本功能测试 ZLBF_6.1.26</t>
-  </si>
-  <si>
-    <t>PPPoE-WAN接入切换 ZLBF_6.1.33</t>
-  </si>
-  <si>
-    <t>PPPoE-用户名与密码长度 ZLBF_6.1.36</t>
-  </si>
-  <si>
-    <t>PPPoE-用户名与密码有效性测试 ZLBF_6.1.37</t>
-  </si>
-  <si>
-    <t>PPPoE-账号反复拔号测试 ZLBF_6.1.30</t>
-  </si>
-  <si>
-    <t>PPPOE正常拨号 ZLBF_6.1.21</t>
-  </si>
-  <si>
-    <t>pptp</t>
-  </si>
-  <si>
-    <t>PPTP-动态+IP地址拨号 ZLBF_6.1.40</t>
-  </si>
-  <si>
-    <t>PPTP-PAP认证 ZLBF_6.1.43</t>
-  </si>
-  <si>
-    <t>PPTP-CHAP-MD5 ZLBF_6.1.44</t>
-  </si>
-  <si>
-    <t>PPTP-MS-CHAPv1 ZLBF_6.1.45</t>
-  </si>
-  <si>
-    <t>PPTP-MS-CHAPv2 ZLBF_6.1.46</t>
-  </si>
-  <si>
-    <t>PPTP-断电重启 ZLBF_6.1.56</t>
-  </si>
-  <si>
-    <t>PPTP-WAN接入切换 ZLBF_6.1.57</t>
-  </si>
-  <si>
-    <t>PPTP-服务器IP地址合法性检测 ZLBF_6.1.60</t>
-  </si>
-  <si>
-    <t>PPTP-账号反复拔号测试 ZLBF_6.1.53</t>
-  </si>
-  <si>
-    <t>PPTP页面恢复出厂设置 ZLBF_21.1.31</t>
-  </si>
-  <si>
-    <t>qos</t>
-  </si>
-  <si>
-    <t>QOS关闭 ZLBF_27.1.1</t>
-  </si>
-  <si>
-    <t>总带宽速率测试 ZLBF_27.1.3</t>
-  </si>
-  <si>
-    <t>QOS开启-子规则关闭 ZLBF_27.1.4</t>
-  </si>
-  <si>
-    <t>QOS开启-子规则开启 ZLBF_27.1.5</t>
-  </si>
-  <si>
-    <t>受限最大带宽测试 ZLBF_27.1.11</t>
-  </si>
-  <si>
-    <t>清除规则测试 ZLBF_27.1.16</t>
-  </si>
-  <si>
-    <t>修改LAN口IP后规则自动更改 ZLBF_27.1.8</t>
-  </si>
-  <si>
-    <t>保障最小带宽之和大于总带宽 ZLBF_27.1.10</t>
-  </si>
-  <si>
-    <t>IP地址段冲突测试 ZLBF_27.1.14</t>
-  </si>
-  <si>
-    <t>PPPOE方式下QOS验证 ZLBF_27.1.19</t>
-  </si>
-  <si>
-    <t>受限最大带宽之和大于总带宽 ZLBF_27.1.12</t>
-  </si>
-  <si>
-    <t>STATIC方式下QOS验证 ZLBF_27.1.20</t>
-  </si>
-  <si>
-    <t>重启后QOS验证 ZLBF_27.1.25</t>
-  </si>
-  <si>
-    <t>IP起始结束地址验证 ZLBF_27.1.6</t>
-  </si>
-  <si>
-    <t>remote_manage</t>
-  </si>
-  <si>
-    <t>远程管理--允许所有主机访问 ZLBF_30.1.1</t>
-  </si>
-  <si>
-    <t>远程管理--指定开放端口 ZLBF_30.1.2</t>
-  </si>
-  <si>
-    <t>远程管理-开放已经占用的端口 ZLBF_30.1.3</t>
-  </si>
-  <si>
-    <t>远程管理-各种接入方式下的远程管理 ZLBF_30.1.6</t>
-  </si>
-  <si>
-    <t>远程管理-恢复出厂设置 ZLBF_30.1.8</t>
-  </si>
-  <si>
-    <t>远程管理-备份与恢复功能测试 ZLBF_30.1.9</t>
-  </si>
-  <si>
-    <t>repeater</t>
-  </si>
-  <si>
-    <t>中继模式-WPA-TKIP加密测试 ZLRM_1.1.9</t>
-  </si>
-  <si>
-    <t>中继模式-WPA-AES加密测试 ZLRM_1.1.10</t>
-  </si>
-  <si>
-    <t>中继模式-WPA2-AES加密测试 ZLRM_1.1.12</t>
-  </si>
-  <si>
-    <t>中继模式-无加密测试 ZLRM_1.1.14</t>
-  </si>
-  <si>
-    <t>中继模式修改上行网络信道测试 ZLRM_1.1.19</t>
-  </si>
-  <si>
-    <t>重启上行AP后自动中继 ZLRM_1.1.21</t>
-  </si>
-  <si>
-    <t>中继方式下QOS验证 ZLBF_27.1.21</t>
-  </si>
-  <si>
-    <t>系统诊断测试-repeater ZLBF_4.1.11</t>
-  </si>
-  <si>
-    <t>高级诊断-repeater模式失败测试 ZLBF_4.1.25</t>
-  </si>
-  <si>
-    <t>中继-3_4G手动切换 ZLBF_7.1.36</t>
-  </si>
-  <si>
-    <t>中继模式下导出导入配置文件 ZLBF_21.1.43</t>
-  </si>
-  <si>
-    <t>DHCPC--基本功能测试 ZLBF_6.1.1</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>静态IP基本功能测试 ZLBF_6.1.13</t>
-  </si>
-  <si>
-    <t>静态接入-更改DNS有效性 ZLBF_6.1.14</t>
-  </si>
-  <si>
-    <t>静态IP输入测试 ZLBF_6.1.15</t>
-  </si>
-  <si>
-    <t>静态IP-IP地址异常输入测试 ZLBF_6.1.16</t>
-  </si>
-  <si>
-    <t>静态IP-掩码异常输入测试 ZLBF_6.1.17</t>
-  </si>
-  <si>
-    <t>静态IP-网关异常输入测试 ZLBF_6.1.18</t>
-  </si>
-  <si>
-    <t>静态IP-DNS异常输入测试 ZLBF_6.1.19</t>
-  </si>
-  <si>
-    <t>systatus</t>
-  </si>
-  <si>
-    <t>WAN口状态 ZLBF_5.1.22</t>
-  </si>
-  <si>
-    <t>信号强度测试 ZLBF_11.1.16</t>
-  </si>
-  <si>
-    <t>LAN口状态 ZLBF_5.1.23</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>软件重启功能测试 ZLBF_21.1.29</t>
-  </si>
-  <si>
-    <t>内存信息 ZLBF_4.1.10</t>
-  </si>
-  <si>
-    <t>终端显示测试 ZLBF_5.1.10</t>
-  </si>
-  <si>
-    <t>终端流量统计测试 ZLBF_5.1.11</t>
-  </si>
-  <si>
-    <t>定时任务开启 ZLBF_34.1.2</t>
-  </si>
-  <si>
-    <t>运行时长 ZLBF_5.1.19</t>
-  </si>
-  <si>
-    <t>命令恢复出厂设置 ZLBF_21.1.30</t>
-  </si>
-  <si>
-    <t>路由模式下导出导入配置文件 ZLBF_21.1.42</t>
-  </si>
-  <si>
-    <t>定时重启配置保存测试 ZLBF_34.1.4</t>
-  </si>
-  <si>
-    <t>默认密码测试 ZLBF_21.1.49</t>
-  </si>
-  <si>
-    <t>登录功能测试 ZLBF_21.1.36</t>
-  </si>
-  <si>
-    <t>注销功能测试 ZLBF_21.1.74</t>
-  </si>
-  <si>
-    <t>新的用户名和密码重新登陆 ZLBF_21.1.54</t>
-  </si>
-  <si>
-    <t>改前的用户名和密码登录 ZLBF_21.1.55</t>
-  </si>
-  <si>
-    <t>再次更改新的密码并登陆路由器 ZLBF_21.1.56</t>
-  </si>
-  <si>
-    <t>密码有效性检测 ZLBF_21.1.68</t>
-  </si>
-  <si>
-    <t>账号管理-修改账号为中文 ZLBF_21.1.72</t>
-  </si>
-  <si>
-    <t>超时时间测试 ZLBF_21.1.73</t>
-  </si>
-  <si>
-    <t>恢复出厂设置 ZLBF_21.1.21</t>
-  </si>
-  <si>
-    <t>导入配置文件 ZLBF_21.1.39</t>
-  </si>
-  <si>
-    <t>upload</t>
-  </si>
-  <si>
-    <t>非法升级-选择其它格式错误的升级文件 ZLBF_21.1.2</t>
-  </si>
-  <si>
-    <t>非法升级-修改升级包内容再升级 ZLBF_21.1.3</t>
-  </si>
-  <si>
-    <t>非法升级-选择方案不配套升级包 ZLBF_21.1.4</t>
-  </si>
-  <si>
-    <t>非法升级-选择超大升级包 ZLBF_21.1.5</t>
-  </si>
-  <si>
-    <t>测试版本升低版本 ZLBF_21.1.9</t>
-  </si>
-  <si>
-    <t>低版本升测试版本 ZLBF_21.1.10</t>
-  </si>
-  <si>
-    <t>同版本之间升级 ZLBF_21.1.11</t>
-  </si>
-  <si>
-    <t>本地http软件升级测试（保留配置） ZLBF_21.1.1</t>
-  </si>
-  <si>
-    <t>url_filter</t>
-  </si>
-  <si>
-    <t>URL过滤--黑名单 ZLBF_14.1.1</t>
-  </si>
-  <si>
-    <t>URL过滤--白名单 ZLBF_14.1.2</t>
-  </si>
-  <si>
-    <t>防火墙关闭-URL过滤关闭 ZLBF_29.1.3</t>
-  </si>
-  <si>
-    <t>防火墙关闭-URL过滤开启 ZLBF_29.1.6</t>
-  </si>
-  <si>
-    <t>防火墙开启-URL过滤关闭 ZLBF_29.1.9</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-添加 ZLBF_14.1.3</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-删除 ZLBF_14.1.4</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-删除所有规则列表 ZLBF_14.1.6</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-输入异常测试 ZLBF_14.1.5</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-重启测试 ZLBF_14.1.7</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-添加 ZLBF_14.1.8</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-删除 ZLBF_14.1.9</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-清除规则列表 ZLBF_14.1.11</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-输入异常测试 ZLBF_14.1.10</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-重启测试 ZLBF_14.1.12</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-规则重复性判断 ZLBF_14.1.13</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-规则重复性判断 ZLBF_14.1.14</t>
-  </si>
-  <si>
-    <t>wifi</t>
-  </si>
-  <si>
-    <t>无线状态 ZLBF_5.1.24</t>
-  </si>
-  <si>
-    <t>状态页面无线参数测试 ZLBF_11.1.1</t>
-  </si>
-  <si>
-    <t>WPA_WPA2-PSK混合加密密钥 ZLBF_11.1.3</t>
-  </si>
-  <si>
-    <t>固定信道选择测试 ZLBF_11.1.21</t>
-  </si>
-  <si>
-    <t>无线SSID输入字母和数字测试 ZLBF_11.1.4</t>
-  </si>
-  <si>
-    <t>无线SSID输入特殊字符测试 ZLBF_11.1.5</t>
-  </si>
-  <si>
-    <t>无线SSID输入空格测试 ZLBF_11.1.6</t>
-  </si>
-  <si>
-    <t>无线SSID长度范围异常测试 ZLBF_11.1.9</t>
-  </si>
-  <si>
-    <t>无线SSID长度范围测试 ZLBF_11.1.8</t>
-  </si>
-  <si>
-    <t>无线开关测试 ZLBF_11.1.18</t>
-  </si>
-  <si>
-    <t>状态页面-无线信道测试 ZLBF_11.1.2</t>
-  </si>
-  <si>
-    <t>状态页面-无线开关测试 ZLBF_11.1.3</t>
-  </si>
-  <si>
-    <t>WPA_WPA2-PSK密钥输入特殊字符测试 ZLBF_11.1.11</t>
-  </si>
-  <si>
-    <t>WPA_WPA2-PSK密钥输入空格测试 ZLBF_11.1.12</t>
-  </si>
-  <si>
-    <t>WPA_WPA2-PSK密钥输入为空测试 ZLBF_11.1.13</t>
-  </si>
-  <si>
-    <t>WPA_WPA2-PSK密钥输入长度范围测试 ZLBF_11.1.14</t>
-  </si>
-  <si>
-    <t>WPA_WPA2-PSK密钥输入长度范围异常测试 ZLBF_11.1.15</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为正常值 ZLBF_11.1.22</t>
-  </si>
-  <si>
-    <t>最大连接数输入值超出限制范围 ZLBF_11.1.23</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为空 ZLBF_11.1.24</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为为小数 ZLBF_11.1.25</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为负数 ZLBF_11.1.26</t>
-  </si>
-  <si>
-    <t>最大连接数输入值为非数字的其他字符 ZLBF_11.1.27</t>
-  </si>
-  <si>
-    <t>无线2.4G状态更多 ZLBF_5.1.37</t>
-  </si>
-  <si>
-    <t>无线终端数 ZLBF_5.1.39</t>
-  </si>
-  <si>
-    <t>最大连接数输入值带空格 ZLBF_11.1.28</t>
-  </si>
-  <si>
-    <t>wizard</t>
-  </si>
-  <si>
-    <t>向导第一步模式选择 ZLBF_3.1.5</t>
-  </si>
-  <si>
-    <t>向导第一步跳过 ZLBF_3.1.6</t>
-  </si>
-  <si>
-    <t>向导第二步外网设置 ZLBF_3.1.7</t>
-  </si>
-  <si>
-    <t>向导第二步跳过 ZLBF_3.1.8</t>
-  </si>
-  <si>
-    <t>向导第三步内网设置 ZLBF_3.1.9</t>
-  </si>
-  <si>
-    <t>向导第三步跳过 ZLBF_3.1.10</t>
-  </si>
-  <si>
-    <t>向导第四步WIFI设置 ZLBF_3.1.11</t>
-  </si>
-  <si>
-    <t>向导第四步跳过 ZLBF_3.1.12</t>
-  </si>
-  <si>
-    <t>向导第四步点击开始使用 ZLBF_3.1.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置拨号-中国移动4G ZLBF_F_4G_1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1338,11 +1390,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="76.875" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1372,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1380,13 +1439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1394,13 +1453,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1408,13 +1467,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1422,13 +1481,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1436,102 +1495,102 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1540,12 +1599,12 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1554,12 +1613,12 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1568,91 +1627,91 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1660,13 +1719,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1674,18 +1733,18 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -1694,12 +1753,12 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
@@ -1708,12 +1767,12 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -1722,12 +1781,12 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
@@ -1736,12 +1795,12 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -1750,12 +1809,12 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
@@ -1764,12 +1823,12 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
@@ -1778,12 +1837,12 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
@@ -1792,12 +1851,12 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
@@ -1806,12 +1865,12 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
@@ -1820,12 +1879,12 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
@@ -1834,180 +1893,180 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
@@ -2016,12 +2075,12 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
@@ -2030,12 +2089,12 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>61</v>
@@ -2044,12 +2103,12 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
         <v>62</v>
@@ -2058,12 +2117,12 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>63</v>
@@ -2072,166 +2131,166 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
         <v>64</v>
       </c>
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
         <v>67</v>
       </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
@@ -2240,12 +2299,12 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
         <v>78</v>
@@ -2254,12 +2313,12 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
         <v>79</v>
@@ -2268,12 +2327,12 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
         <v>80</v>
@@ -2282,12 +2341,12 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
         <v>81</v>
@@ -2296,12 +2355,12 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>82</v>
@@ -2310,12 +2369,12 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>83</v>
@@ -2324,12 +2383,12 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
@@ -2338,12 +2397,12 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
         <v>85</v>
@@ -2352,1113 +2411,1113 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
         <v>89</v>
       </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
         <v>100</v>
       </c>
-      <c r="B86" t="s">
-        <v>102</v>
-      </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
         <v>115</v>
       </c>
-      <c r="B100" t="s">
-        <v>117</v>
-      </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
         <v>120</v>
       </c>
-      <c r="B104" t="s">
-        <v>122</v>
-      </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" t="s">
         <v>138</v>
       </c>
-      <c r="B121" t="s">
-        <v>140</v>
-      </c>
       <c r="C121" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" t="s">
         <v>159</v>
       </c>
-      <c r="B141" t="s">
-        <v>161</v>
-      </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
@@ -3466,13 +3525,13 @@
         <v>170</v>
       </c>
       <c r="B152" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
@@ -3480,13 +3539,13 @@
         <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
@@ -3494,13 +3553,13 @@
         <v>170</v>
       </c>
       <c r="B154" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
@@ -3508,13 +3567,13 @@
         <v>170</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
@@ -3522,13 +3581,13 @@
         <v>170</v>
       </c>
       <c r="B156" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
@@ -3536,550 +3595,550 @@
         <v>170</v>
       </c>
       <c r="B157" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
+        <v>178</v>
+      </c>
+      <c r="C158" t="s">
         <v>179</v>
       </c>
-      <c r="C158" t="s">
-        <v>7</v>
-      </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B159" t="s">
         <v>180</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" t="s">
         <v>181</v>
       </c>
-      <c r="B160" t="s">
-        <v>182</v>
-      </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B161" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B163" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D163" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
         <v>191</v>
       </c>
       <c r="C169" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
+        <v>190</v>
+      </c>
+      <c r="B170" t="s">
         <v>192</v>
       </c>
-      <c r="B170" t="s">
-        <v>193</v>
-      </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B179" t="s">
+        <v>201</v>
+      </c>
+      <c r="C179" t="s">
         <v>202</v>
       </c>
-      <c r="C179" t="s">
-        <v>7</v>
-      </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B180" t="s">
         <v>203</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D180" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B181" t="s">
         <v>204</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B182" t="s">
         <v>205</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B183" t="s">
         <v>206</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" t="s">
         <v>207</v>
       </c>
-      <c r="B184" t="s">
-        <v>208</v>
-      </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" t="s">
         <v>209</v>
       </c>
-      <c r="C185" t="s">
-        <v>7</v>
-      </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B186" t="s">
         <v>210</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B187" t="s">
         <v>211</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
         <v>212</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
         <v>213</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
         <v>214</v>
       </c>
-      <c r="B190" t="s">
-        <v>215</v>
-      </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B194" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B196" t="s">
         <v>221</v>
@@ -4088,82 +4147,82 @@
         <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B197" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C198" t="s">
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B199" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B200" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B201" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C201" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B202" t="s">
         <v>228</v>
@@ -4172,12 +4231,12 @@
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B203" t="s">
         <v>229</v>
@@ -4186,12 +4245,12 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B204" t="s">
         <v>230</v>
@@ -4200,12 +4259,12 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B205" t="s">
         <v>231</v>
@@ -4214,12 +4273,12 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B206" t="s">
         <v>232</v>
@@ -4228,12 +4287,12 @@
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B207" t="s">
         <v>233</v>
@@ -4242,12 +4301,12 @@
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B208" t="s">
         <v>234</v>
@@ -4256,1172 +4315,1341 @@
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
+        <v>222</v>
+      </c>
+      <c r="B209" t="s">
         <v>235</v>
       </c>
-      <c r="B209" t="s">
-        <v>236</v>
-      </c>
       <c r="C209" t="s">
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B210" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C210" t="s">
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B211" t="s">
         <v>238</v>
       </c>
       <c r="C211" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
+        <v>237</v>
+      </c>
+      <c r="B212" t="s">
         <v>239</v>
       </c>
-      <c r="B212" t="s">
-        <v>240</v>
-      </c>
       <c r="C212" t="s">
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B213" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C213" t="s">
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B214" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B215" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B216" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C216" t="s">
         <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B217" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C217" t="s">
         <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B218" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B219" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B220" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B221" t="s">
         <v>249</v>
       </c>
       <c r="C221" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B222" t="s">
         <v>250</v>
       </c>
       <c r="C222" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B223" t="s">
         <v>251</v>
       </c>
       <c r="C223" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B224" t="s">
         <v>252</v>
       </c>
       <c r="C224" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B225" t="s">
         <v>253</v>
       </c>
       <c r="C225" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B226" t="s">
         <v>254</v>
       </c>
       <c r="C226" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B227" t="s">
         <v>255</v>
       </c>
       <c r="C227" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B228" t="s">
         <v>256</v>
       </c>
       <c r="C228" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B229" t="s">
         <v>257</v>
       </c>
       <c r="C229" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B230" t="s">
         <v>258</v>
       </c>
       <c r="C230" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B231" t="s">
         <v>259</v>
       </c>
       <c r="C231" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
+        <v>248</v>
+      </c>
+      <c r="B232" t="s">
         <v>260</v>
       </c>
-      <c r="B232" t="s">
-        <v>261</v>
-      </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B233" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B234" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B235" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B236" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B237" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B238" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B239" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C239" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B240" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
+        <v>248</v>
+      </c>
+      <c r="B241" t="s">
         <v>269</v>
       </c>
-      <c r="B241" t="s">
-        <v>271</v>
-      </c>
       <c r="C241" t="s">
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C251" t="s">
         <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B252" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B253" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B254" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B255" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D255" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B256" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B257" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
+        <v>284</v>
+      </c>
+      <c r="B258" t="s">
         <v>287</v>
       </c>
-      <c r="B258" t="s">
-        <v>289</v>
-      </c>
       <c r="C258" t="s">
         <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B259" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B260" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
       </c>
       <c r="D260" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B261" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
       </c>
       <c r="D261" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B262" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
       </c>
       <c r="D262" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B263" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
       </c>
       <c r="D263" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B264" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
       </c>
       <c r="D264" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B265" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B266" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C266" t="s">
         <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
       </c>
       <c r="D267" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B268" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
       </c>
       <c r="D268" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B269" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
       </c>
       <c r="D269" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B270" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
       </c>
       <c r="D270" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B271" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
       </c>
       <c r="D271" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B272" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
       </c>
       <c r="D272" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
       </c>
       <c r="D273" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B274" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
       </c>
       <c r="D274" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
       </c>
       <c r="D275" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B276" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
       </c>
       <c r="D276" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B277" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C277" t="s">
         <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B278" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C278" t="s">
         <v>7</v>
       </c>
       <c r="D278" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B279" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
       </c>
       <c r="D279" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B280" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B281" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C281" t="s">
         <v>7</v>
       </c>
       <c r="D281" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B282" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
       </c>
       <c r="D282" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B283" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
       </c>
       <c r="D283" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
+        <v>308</v>
+      </c>
+      <c r="B284" t="s">
         <v>314</v>
       </c>
-      <c r="B284" t="s">
-        <v>316</v>
-      </c>
       <c r="C284" t="s">
         <v>7</v>
       </c>
       <c r="D284" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B285" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
       </c>
       <c r="D285" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B286" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
       </c>
       <c r="D286" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B287" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
       </c>
       <c r="D287" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B288" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
       </c>
       <c r="D288" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B289" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C289" t="s">
         <v>7</v>
       </c>
       <c r="D289" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B290" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C290" t="s">
         <v>7</v>
       </c>
       <c r="D290" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B291" t="s">
+        <v>322</v>
+      </c>
+      <c r="C291" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A292" t="s">
+        <v>316</v>
+      </c>
+      <c r="B292" t="s">
         <v>323</v>
       </c>
-      <c r="C291" t="s">
-        <v>7</v>
-      </c>
-      <c r="D291" t="s">
-        <v>8</v>
+      <c r="C292" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A293" t="s">
+        <v>316</v>
+      </c>
+      <c r="B293" t="s">
+        <v>324</v>
+      </c>
+      <c r="C293" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
+        <v>316</v>
+      </c>
+      <c r="B294" t="s">
+        <v>325</v>
+      </c>
+      <c r="C294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>316</v>
+      </c>
+      <c r="B295" t="s">
+        <v>326</v>
+      </c>
+      <c r="C295" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>316</v>
+      </c>
+      <c r="B296" t="s">
+        <v>327</v>
+      </c>
+      <c r="C296" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A297" t="s">
+        <v>316</v>
+      </c>
+      <c r="B297" t="s">
+        <v>328</v>
+      </c>
+      <c r="C297" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
+        <v>316</v>
+      </c>
+      <c r="B298" t="s">
+        <v>329</v>
+      </c>
+      <c r="C298" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A299" t="s">
+        <v>316</v>
+      </c>
+      <c r="B299" t="s">
+        <v>330</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
+        <v>316</v>
+      </c>
+      <c r="B300" t="s">
+        <v>331</v>
+      </c>
+      <c r="C300" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
+        <v>316</v>
+      </c>
+      <c r="B301" t="s">
+        <v>332</v>
+      </c>
+      <c r="C301" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A302" t="s">
+        <v>316</v>
+      </c>
+      <c r="B302" t="s">
+        <v>333</v>
+      </c>
+      <c r="C302" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
+        <v>316</v>
+      </c>
+      <c r="B303" t="s">
+        <v>334</v>
+      </c>
+      <c r="C303" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E303"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frame/excel_switch_xml.xlsx
+++ b/frame/excel_switch_xml.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11835" windowHeight="9630"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="用例" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用例!$A$1:$E$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用例!$A$1:$E$341</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="384">
   <si>
     <t>功能模块</t>
   </si>
@@ -57,6 +57,9 @@
     <t>网络切换-静态IP与3G或4G手动切换 ZLBF_F_4G_5.3</t>
   </si>
   <si>
+    <t>内置拨号-中国移动4G ZLBF_F_4G_1.2</t>
+  </si>
+  <si>
     <t>ApMode</t>
   </si>
   <si>
@@ -285,6 +288,9 @@
     <t>DHCP服务-DHCP服务地址和WAN口地址在同一网段 ZLBF_F_LAN_1.7</t>
   </si>
   <si>
+    <t>DHCP服务-地址池IP分配约束测试 ZLBF_F_LAN_1.4</t>
+  </si>
+  <si>
     <t>DHCP服务-地址池正常范围大小修改 ZLBF_F_LAN_1.3</t>
   </si>
   <si>
@@ -312,6 +318,45 @@
     <t>DHCP服务-开始地址大于结束地址 ZLBF_F_LAN_1.6</t>
   </si>
   <si>
+    <t>DHCP服务-更改LAN口IP地址第一分段特殊IP ZLBF_F_LAN_1.22</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第一分段特殊符号 ZLBF_F_LAN_1.23</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第一分段边界 ZLBF_F_LAN_1.20</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第一分段边界异常 ZLBF_F_LAN_1.21</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第三分段边界 ZLBF_F_LAN_1.27</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第三分段边界异常 ZLBF_F_LAN_1.28</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第三分段边界特殊符号 ZLBF_F_LAN_1.29</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第二分段边界 ZLBF_F_LAN_1.24</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第二分段边界异常 ZLBF_F_LAN_1.25</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第二分段边界特殊符号 ZLBF_F_LAN_1.26</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第四分段边界 ZLBF_F_LAN_1.30</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第四分段边界异常 ZLBF_F_LAN_1.31</t>
+  </si>
+  <si>
+    <t>DHCP服务-更改LAN口IP地址第四分段边界特殊符号 ZLBF_F_LAN_1.32</t>
+  </si>
+  <si>
     <t>DHCP服务-租约时长输入中文和英文测试 ZLBF_F_LAN_4.2</t>
   </si>
   <si>
@@ -333,9 +378,6 @@
     <t>MACFilter</t>
   </si>
   <si>
-    <t>MAC过滤--生效失效 ZLBF_F_MACFilter_1.6</t>
-  </si>
-  <si>
     <t>MAC过滤-开关为关闭 ZLBF_F_MACFilter_1.2</t>
   </si>
   <si>
@@ -345,12 +387,18 @@
     <t>MAC过滤-满载配置 ZLBF_F_MACFilter_1.5</t>
   </si>
   <si>
+    <t>MAC过滤-生效失效 ZLBF_F_MACFilter_1.6</t>
+  </si>
+  <si>
     <t>MAC过滤-规则删除 ZLBF_F_MACFilter_1.4</t>
   </si>
   <si>
     <t>MAC过滤-规则编辑 ZLBF_F_MACFilter_1.3</t>
   </si>
   <si>
+    <t>MAC过滤-输入MAC大小写不一致 ZLBF_F_MACFilter_2.7</t>
+  </si>
+  <si>
     <t>MAC过滤-输入带特殊符号MAC ZLBF_F_MACFilter_2.4</t>
   </si>
   <si>
@@ -375,9 +423,6 @@
     <t>系统状态-运行时长 ZLBF_F_NetworkStatus_3.3</t>
   </si>
   <si>
-    <t>系统状态-无线5G状态 ZLBF_F_NetworkStatus_3.10</t>
-  </si>
-  <si>
     <t>系统状态-无线5G状态详细信息 ZLBF_F_NetworkStatus_3.12</t>
   </si>
   <si>
@@ -411,18 +456,6 @@
     <t>Outbound</t>
   </si>
   <si>
-    <t>IP过滤--源IP为IP网段 ZLBF_F_Outbound_1.3</t>
-  </si>
-  <si>
-    <t>IP过滤--源IP为单个IP ZLBF_F_Outbound_1.2</t>
-  </si>
-  <si>
-    <t>IP过滤--目的IP为IP网段 ZLBF_F_Outbound_2.2</t>
-  </si>
-  <si>
-    <t>IP过滤--目的IP为单个IP ZLBF_F_Outbound_2.1</t>
-  </si>
-  <si>
     <t>IP过滤-IP输入测试 ZLBF_F_Outbound_1.1</t>
   </si>
   <si>
@@ -438,6 +471,12 @@
     <t>IP过滤-应用规则测试 ZLBF_F_Outbound_9.1</t>
   </si>
   <si>
+    <t>IP过滤-源IP为IP网段 ZLBF_F_Outbound_1.3</t>
+  </si>
+  <si>
+    <t>IP过滤-源IP为单个IP ZLBF_F_Outbound_1.2</t>
+  </si>
+  <si>
     <t>IP过滤-源IP为所有IP ZLBF_F_Outbound_1.4</t>
   </si>
   <si>
@@ -453,6 +492,12 @@
     <t>IP过滤-生效时间输入 ZLBF_F_Outbound_4.2</t>
   </si>
   <si>
+    <t>IP过滤-目的IP为IP网段 ZLBF_F_Outbound_2.2</t>
+  </si>
+  <si>
+    <t>IP过滤-目的IP为单个IP ZLBF_F_Outbound_2.1</t>
+  </si>
+  <si>
     <t>IP过滤-目的端口为所有端口 ZLBF_F_Outbound_6.1</t>
   </si>
   <si>
@@ -468,15 +513,30 @@
     <t>QOS-桥接方式下QOS验证 ZLBF_F_QoS_3.15</t>
   </si>
   <si>
+    <t>QOS-3G或4G模式下QOS验证 ZLBF_F_QoS_3.16</t>
+  </si>
+  <si>
+    <t>QOS-IP地址段内QOS功能测试 ZLBF_F_QoS_3.1</t>
+  </si>
+  <si>
     <t>QOS-PPPOE方式下QOS验证 ZLBF_F_QoS_3.11</t>
   </si>
   <si>
+    <t>QOS-PPTP方式下QOS验证 ZLBF_F_QoS_3.13</t>
+  </si>
+  <si>
     <t>QOS-STATIC方式下QOS验证 ZLBF_F_QoS_3.12</t>
   </si>
   <si>
+    <t>QOS-保障最小带宽与受限最大带宽测试 ZLBF_F_QoS_3.7</t>
+  </si>
+  <si>
     <t>QOS-保障最小带宽之和大于总带宽 ZLBF_F_QoS_3.4</t>
   </si>
   <si>
+    <t>QOS-保障最小带宽测试 ZLBF_F_QoS_3.3</t>
+  </si>
+  <si>
     <t>QOS-修改LAN口IP后规则自动更改 ZLBF_F_QoS_3.2</t>
   </si>
   <si>
@@ -489,15 +549,33 @@
     <t>QOS-子规则关闭 ZLBF_F_QoS_2.1</t>
   </si>
   <si>
+    <t>QOS-子规则带宽输入大于总带宽 ZLBF_F_QoS_2.12</t>
+  </si>
+  <si>
+    <t>QOS-子规则带宽输入有空格 ZLBF_F_QoS_2.14</t>
+  </si>
+  <si>
+    <t>QOS-子规则带宽输入边界值 ZLBF_F_QoS_2.11</t>
+  </si>
+  <si>
+    <t>QOS-子规则带宽输入非数字 ZLBF_F_QoS_2.13</t>
+  </si>
+  <si>
     <t>QOS-子规则开启并重启 ZLBF_F_QoS_2.2</t>
   </si>
   <si>
+    <t>QOS-子规则添加满规格 ZLBF_F_QoS_2.15</t>
+  </si>
+  <si>
     <t>QOS-子规则结束IP输入无效等价值 ZLBF_F_QoS_2.8</t>
   </si>
   <si>
     <t>QOS-子规则结束IP输入有效等价值与边界值 ZLBF_F_QoS_2.7</t>
   </si>
   <si>
+    <t>QOS-子规则结束IP输入有空格 ZLBF_F_QoS_2.10</t>
+  </si>
+  <si>
     <t>QOS-子规则结束IP输入非数字 ZLBF_F_QoS_2.9</t>
   </si>
   <si>
@@ -507,6 +585,9 @@
     <t>QOS-子规则起始IP输入有效等价值与边界值 ZLBF_F_QoS_2.3</t>
   </si>
   <si>
+    <t>QOS-子规则起始IP输入有空格 ZLBF_F_QoS_2.6</t>
+  </si>
+  <si>
     <t>QOS-子规则起始IP输入非数字 ZLBF_F_QoS_2.5</t>
   </si>
   <si>
@@ -516,10 +597,22 @@
     <t>QOS-开关关闭 ZLBF_F_QoS_1.1</t>
   </si>
   <si>
-    <t>QOS-总带宽速率为最大值流量测试 ZLBF_F_QoS_1.8</t>
-  </si>
-  <si>
-    <t>QOS-总带宽速率为最小值流量测试 ZLBF_F_QoS_1.7</t>
+    <t>QOS-开关关闭时下载流量测试 ZLBF_F_QoS_1.2</t>
+  </si>
+  <si>
+    <t>QOS-总带宽输入值为非数字 ZLBF_F_QoS_1.6</t>
+  </si>
+  <si>
+    <t>QOS-总带宽输入值有空格 ZLBF_F_QoS_1.5</t>
+  </si>
+  <si>
+    <t>QOS-总带宽输入无效等价值 ZLBF_F_QoS_1.4</t>
+  </si>
+  <si>
+    <t>QOS-总带宽输入有效等价值与边界值 ZLBF_F_QoS_1.3</t>
+  </si>
+  <si>
+    <t>QOS-总带宽速率为最小值流量测试 ZLBF_F_QoS_1.8</t>
   </si>
   <si>
     <t>QOS-总带宽速率为有效值流量测试 ZLBF_F_QoS_1.9</t>
@@ -528,6 +621,9 @@
     <t>QOS-清除规则测试 ZLBF_F_QoS_3.9</t>
   </si>
   <si>
+    <t>QOS-满规则带宽测试 ZLBF_F_QoS_3.8</t>
+  </si>
+  <si>
     <t>QOS-重启后QOS验证 ZLBF_F_QoS_3.18</t>
   </si>
   <si>
@@ -594,6 +690,15 @@
     <t>System</t>
   </si>
   <si>
+    <t>系统配置-导出配置功能测试浏览器下载 ZLBF_F_System_4.1</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>系统配置-非法备份配置文件检测 ZLBF_F_System_4.5</t>
+  </si>
+  <si>
     <t>系统配置-路由模式下导出导入配置文件 ZLBF_F_System_4.6</t>
   </si>
   <si>
@@ -609,6 +714,9 @@
     <t>本地升级-测试版本升低版本 ZLBF_F_System_1.9</t>
   </si>
   <si>
+    <t>本地升级-测试版本升高版本 ZLBF_F_System_1.7</t>
+  </si>
+  <si>
     <t>本地升级-选择其它方案的升级文件升级 ZLBF_F_System_1.4</t>
   </si>
   <si>
@@ -624,15 +732,6 @@
     <t>重启-软件重启功能测试 ZLBF_F_System_5.1</t>
   </si>
   <si>
-    <t>系统配置-导出配置功能测试浏览器下载 ZLBF_F_System_4.1</t>
-  </si>
-  <si>
-    <t>backup</t>
-  </si>
-  <si>
-    <t>系统配置-非法备份配置文件检测 ZLBF_F_System_4.5</t>
-  </si>
-  <si>
     <t>恢复出厂-PPPOE接入方式下恢复出厂设置 ZLBF_F_System_3.1</t>
   </si>
   <si>
@@ -645,12 +744,15 @@
     <t>系统配置-导入配置文件 ZLBF_F_System_4.3</t>
   </si>
   <si>
+    <t>账号管理-密码不一致 ZLBF_F_System_6.7</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
     <t>账号管理-密码长度 ZLBF_F_System_6.4</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>账号管理-新账户登录 ZLBF_F_System_6.9</t>
   </si>
   <si>
@@ -672,12 +774,21 @@
     <t>账号管理-非法用户名长度 ZLBF_F_System_6.2</t>
   </si>
   <si>
+    <t>路由器登录-不输入用户名与密码 ZLBF_F_System_7.2</t>
+  </si>
+  <si>
     <t>路由器登录-注销功能测试 ZLBF_F_System_7.7</t>
   </si>
   <si>
     <t>路由器登录-超时时间测试 ZLBF_F_System_7.6</t>
   </si>
   <si>
+    <t>路由器登录-输入正确的用户名与非法的密码 ZLBF_F_System_7.3</t>
+  </si>
+  <si>
+    <t>路由器登录-输入非法用户名与正确的密码 ZLBF_F_System_7.4</t>
+  </si>
+  <si>
     <t>路由器登录-默认账户 ZLBF_F_System_7.1</t>
   </si>
   <si>
@@ -690,46 +801,46 @@
     <t>URLFilter</t>
   </si>
   <si>
-    <t>URL过滤--白名单 ZLBF_F_URLFilter_1.2</t>
-  </si>
-  <si>
-    <t>URL过滤--黑名单 ZLBF_F_URLFilter_1.1</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-删除 ZLBF_F_URLFilter_2.7</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-添加 ZLBF_F_URLFilter_2.6</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-清除规则列表 ZLBF_F_URLFilter_2.8</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-规则重复性判断 ZLBF_F_URLFilter_3.2</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-输入异常测试 ZLBF_F_URLFilter_2.9</t>
-  </si>
-  <si>
-    <t>URL过滤白名单-重启测试 ZLBF_F_URLFilter_2.10</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-删除 ZLBF_F_URLFilter_1.4</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-删除所有规则列表 ZLBF_F_URLFilter_2.3</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-添加 ZLBF_F_URLFilter_1.3</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-规则重复性判断 ZLBF_F_URLFilter_3.1</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-输入异常测试 ZLBF_F_URLFilter_2.4</t>
-  </si>
-  <si>
-    <t>URL过滤黑名单-重启测试 ZLBF_F_URLFilter_2.5</t>
+    <t>URL过滤-删除所有规则列表 ZLBF_F_URLFilter_2.3</t>
+  </si>
+  <si>
+    <t>URL过滤-白名单 ZLBF_F_URLFilter_1.2</t>
+  </si>
+  <si>
+    <t>URL过滤-白名单删除 ZLBF_F_URLFilter_2.7</t>
+  </si>
+  <si>
+    <t>URL过滤-白名单添加 ZLBF_F_URLFilter_2.6</t>
+  </si>
+  <si>
+    <t>URL过滤-白名单清除规则列表 ZLBF_F_URLFilter_2.8</t>
+  </si>
+  <si>
+    <t>URL过滤-白名单规则重复性判断 ZLBF_F_URLFilter_3.2</t>
+  </si>
+  <si>
+    <t>URL过滤-白名单输入异常测试 ZLBF_F_URLFilter_2.9</t>
+  </si>
+  <si>
+    <t>URL过滤-白名单重启测试 ZLBF_F_URLFilter_2.10</t>
+  </si>
+  <si>
+    <t>URL过滤-黑名单 ZLBF_F_URLFilter_1.1</t>
+  </si>
+  <si>
+    <t>URL过滤-黑名单删除 ZLBF_F_URLFilter_2.2</t>
+  </si>
+  <si>
+    <t>URL过滤-黑名单添加 ZLBF_F_URLFilter_2.1</t>
+  </si>
+  <si>
+    <t>URL过滤-黑名单规则重复性判断 ZLBF_F_URLFilter_3.1</t>
+  </si>
+  <si>
+    <t>URL过滤-黑名单输入异常测试 ZLBF_F_URLFilter_2.4</t>
+  </si>
+  <si>
+    <t>URL过滤-黑名单重启测试 ZLBF_F_URLFilter_2.5</t>
   </si>
   <si>
     <t>VirtualServer</t>
@@ -796,9 +907,6 @@
   </si>
   <si>
     <t>PPPoE-MS-CHAPv1 ZLBF_F_WAN_3.4</t>
-  </si>
-  <si>
-    <t>PPPoE-MS-CHAPv2 ZLBF_F_WAN_3.5</t>
   </si>
   <si>
     <t>PPPoE-PAP认证 ZLBF_F_WAN_3.2</t>
@@ -1038,7 +1146,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内置拨号-中国移动4G ZLBF_F_4G_1.2</t>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QOS-总带宽速率为最大值流量测试 ZLBF_F_QoS_1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPPoE-MS-CHAPv2 ZLBF_F_WAN_3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总带宽设置为1kbps时，有bug，无法获取地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统状态-无线5G状态 ZLBF_F_NetworkStatus_3.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1390,17 +1534,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E303"/>
+  <dimension ref="A1:E341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="2" width="76.875" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1431,7 +1575,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1439,13 +1583,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1453,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1467,13 +1611,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1481,13 +1625,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1495,1152 +1639,1152 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>104</v>
@@ -2649,12 +2793,12 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
         <v>105</v>
@@ -2663,12 +2807,12 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
         <v>106</v>
@@ -2677,12 +2821,12 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
         <v>107</v>
@@ -2691,12 +2835,12 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
         <v>108</v>
@@ -2705,12 +2849,12 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
         <v>109</v>
@@ -2719,12 +2863,12 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
         <v>110</v>
@@ -2733,12 +2877,12 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
         <v>111</v>
@@ -2747,12 +2891,12 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
@@ -2761,12 +2905,12 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
         <v>113</v>
@@ -2775,12 +2919,12 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
         <v>114</v>
@@ -2789,12 +2933,12 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
         <v>115</v>
@@ -2803,40 +2947,40 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" t="s">
         <v>116</v>
       </c>
-      <c r="B101" t="s">
-        <v>117</v>
-      </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
         <v>119</v>
@@ -2845,12 +2989,12 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
         <v>120</v>
@@ -2859,12 +3003,12 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B105" t="s">
         <v>121</v>
@@ -2873,12 +3017,12 @@
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
         <v>122</v>
@@ -2887,12 +3031,12 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
         <v>123</v>
@@ -2901,12 +3045,12 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
         <v>124</v>
@@ -2915,12 +3059,12 @@
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B109" t="s">
         <v>125</v>
@@ -2929,12 +3073,12 @@
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
         <v>126</v>
@@ -2943,12 +3087,12 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
         <v>127</v>
@@ -2957,68 +3101,68 @@
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
         <v>128</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s">
         <v>129</v>
       </c>
-      <c r="B113" t="s">
-        <v>130</v>
-      </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
         <v>133</v>
@@ -3027,166 +3171,166 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>383</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B128" t="s">
         <v>145</v>
@@ -3195,12 +3339,12 @@
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B129" t="s">
         <v>146</v>
@@ -3209,222 +3353,222 @@
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" t="s">
         <v>147</v>
       </c>
-      <c r="B130" t="s">
-        <v>148</v>
-      </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
         <v>163</v>
@@ -3433,12 +3577,12 @@
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B146" t="s">
         <v>164</v>
@@ -3447,12 +3591,12 @@
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B147" t="s">
         <v>165</v>
@@ -3461,12 +3605,12 @@
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B148" t="s">
         <v>166</v>
@@ -3475,12 +3619,12 @@
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B149" t="s">
         <v>167</v>
@@ -3489,12 +3633,12 @@
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B150" t="s">
         <v>168</v>
@@ -3503,12 +3647,12 @@
         <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B151" t="s">
         <v>169</v>
@@ -3517,707 +3661,716 @@
         <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" t="s">
         <v>170</v>
       </c>
-      <c r="B152" t="s">
-        <v>171</v>
-      </c>
       <c r="C152" t="s">
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C158" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
         <v>177</v>
       </c>
-      <c r="B159" t="s">
-        <v>180</v>
-      </c>
       <c r="C159" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C160" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C161" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C162" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C163" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C164" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C165" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C167" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B168" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C168" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B169" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B171" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" t="s">
         <v>190</v>
       </c>
-      <c r="B172" t="s">
-        <v>194</v>
-      </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B175" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B176" t="s">
+        <v>194</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" t="s">
+        <v>195</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>381</v>
+      </c>
+      <c r="E177" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>378</v>
+      </c>
+      <c r="E178" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" t="s">
+        <v>375</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" t="s">
+        <v>197</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>378</v>
+      </c>
+      <c r="E180" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" t="s">
         <v>198</v>
       </c>
-      <c r="C176" t="s">
-        <v>7</v>
-      </c>
-      <c r="D176" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177" t="s">
-        <v>190</v>
-      </c>
-      <c r="B177" t="s">
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" t="s">
         <v>199</v>
       </c>
-      <c r="C177" t="s">
-        <v>7</v>
-      </c>
-      <c r="D177" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" t="s">
-        <v>190</v>
-      </c>
-      <c r="B178" t="s">
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" t="s">
         <v>200</v>
       </c>
-      <c r="C178" t="s">
-        <v>7</v>
-      </c>
-      <c r="D178" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" t="s">
-        <v>190</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" t="s">
         <v>201</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
         <v>202</v>
       </c>
-      <c r="D179" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" t="s">
-        <v>190</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="B185" t="s">
         <v>203</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
         <v>202</v>
       </c>
-      <c r="D180" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
-        <v>190</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="B186" t="s">
         <v>204</v>
       </c>
-      <c r="C181" t="s">
-        <v>25</v>
-      </c>
-      <c r="D181" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
-        <v>190</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>202</v>
+      </c>
+      <c r="B187" t="s">
         <v>205</v>
       </c>
-      <c r="C182" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
-        <v>190</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188" t="s">
         <v>206</v>
       </c>
-      <c r="C183" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
-        <v>190</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>202</v>
+      </c>
+      <c r="B189" t="s">
         <v>207</v>
       </c>
-      <c r="C184" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
-        <v>190</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" t="s">
         <v>208</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
         <v>209</v>
       </c>
-      <c r="D185" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
-        <v>190</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="B191" t="s">
         <v>210</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C191" t="s">
+        <v>211</v>
+      </c>
+      <c r="D191" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
         <v>209</v>
       </c>
-      <c r="D186" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
-        <v>190</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="B192" t="s">
+        <v>212</v>
+      </c>
+      <c r="C192" t="s">
         <v>211</v>
       </c>
-      <c r="C187" t="s">
-        <v>209</v>
-      </c>
-      <c r="D187" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
-        <v>190</v>
-      </c>
-      <c r="B188" t="s">
-        <v>212</v>
-      </c>
-      <c r="C188" t="s">
-        <v>209</v>
-      </c>
-      <c r="D188" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
-        <v>190</v>
-      </c>
-      <c r="B189" t="s">
-        <v>213</v>
-      </c>
-      <c r="C189" t="s">
-        <v>209</v>
-      </c>
-      <c r="D189" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
-        <v>190</v>
-      </c>
-      <c r="B190" t="s">
-        <v>214</v>
-      </c>
-      <c r="C190" t="s">
-        <v>209</v>
-      </c>
-      <c r="D190" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>215</v>
-      </c>
-      <c r="C191" t="s">
-        <v>209</v>
-      </c>
-      <c r="D191" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" t="s">
-        <v>190</v>
-      </c>
-      <c r="B192" t="s">
-        <v>216</v>
-      </c>
-      <c r="C192" t="s">
-        <v>209</v>
-      </c>
       <c r="D192" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B193" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C193" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D193" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B194" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C194" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D194" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B195" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C195" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D195" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B196" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="D196" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B197" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="D197" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="D198" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B199" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="D199" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B200" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="D200" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="D201" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
@@ -4225,13 +4378,13 @@
         <v>222</v>
       </c>
       <c r="B202" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="D202" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
@@ -4239,13 +4392,13 @@
         <v>222</v>
       </c>
       <c r="B203" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="D203" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
@@ -4253,13 +4406,13 @@
         <v>222</v>
       </c>
       <c r="B204" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
@@ -4267,13 +4420,13 @@
         <v>222</v>
       </c>
       <c r="B205" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
@@ -4281,13 +4434,13 @@
         <v>222</v>
       </c>
       <c r="B206" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
@@ -4295,13 +4448,13 @@
         <v>222</v>
       </c>
       <c r="B207" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C207" t="s">
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
@@ -4309,13 +4462,13 @@
         <v>222</v>
       </c>
       <c r="B208" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
@@ -4323,13 +4476,13 @@
         <v>222</v>
       </c>
       <c r="B209" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
@@ -4337,1319 +4490,1851 @@
         <v>222</v>
       </c>
       <c r="B210" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C210" t="s">
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B212" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C212" t="s">
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C213" t="s">
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B214" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" t="s">
         <v>237</v>
       </c>
-      <c r="B215" t="s">
-        <v>242</v>
-      </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D215" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D216" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B218" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D219" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="D220" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D221" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D222" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D223" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D224" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
+        <v>222</v>
+      </c>
+      <c r="B225" t="s">
         <v>248</v>
       </c>
-      <c r="B225" t="s">
-        <v>253</v>
-      </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D225" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B226" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D226" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B227" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D227" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B228" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D228" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B229" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D229" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B230" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D230" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B231" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D231" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B232" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D232" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B233" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="D233" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B234" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B235" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B236" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B237" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B238" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B239" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B240" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B241" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B242" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B243" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B244" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B245" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B246" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B247" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B248" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B249" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B250" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B251" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C251" t="s">
         <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B252" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B253" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B254" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B255" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C255" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B256" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B257" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
+        <v>274</v>
+      </c>
+      <c r="B258" t="s">
         <v>284</v>
       </c>
-      <c r="B258" t="s">
-        <v>287</v>
-      </c>
       <c r="C258" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B259" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B260" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
       </c>
       <c r="D260" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B261" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
       </c>
       <c r="D261" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B262" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
       </c>
       <c r="D262" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
       </c>
       <c r="D263" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B264" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
       </c>
       <c r="D264" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B265" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
       </c>
       <c r="D265" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B266" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C266" t="s">
         <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B267" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
       </c>
       <c r="D267" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B268" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
       </c>
       <c r="D268" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B269" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
       </c>
       <c r="D269" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B270" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
       </c>
       <c r="D270" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B271" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
       </c>
       <c r="D271" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B272" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
       </c>
       <c r="D272" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B273" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
       </c>
       <c r="D273" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B274" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
       </c>
       <c r="D274" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B275" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
       </c>
       <c r="D275" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B276" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
       </c>
       <c r="D276" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B277" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C277" t="s">
         <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B278" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C278" t="s">
         <v>7</v>
       </c>
       <c r="D278" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B279" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
       </c>
       <c r="D279" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B280" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B281" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C281" t="s">
         <v>7</v>
       </c>
       <c r="D281" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" t="s">
         <v>308</v>
       </c>
-      <c r="B282" t="s">
-        <v>312</v>
-      </c>
       <c r="C282" t="s">
         <v>7</v>
       </c>
       <c r="D282" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
       </c>
       <c r="D283" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
       </c>
       <c r="D284" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
       </c>
       <c r="D285" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
       </c>
       <c r="D286" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
       </c>
       <c r="D287" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
       </c>
       <c r="D288" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B289" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C289" t="s">
         <v>7</v>
       </c>
       <c r="D289" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
+        <v>285</v>
+      </c>
+      <c r="B290" t="s">
         <v>316</v>
       </c>
-      <c r="B290" t="s">
-        <v>321</v>
-      </c>
       <c r="C290" t="s">
         <v>7</v>
       </c>
       <c r="D290" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B291" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
       </c>
       <c r="D291" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B292" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C292" t="s">
         <v>7</v>
       </c>
       <c r="D292" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B293" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D293" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B294" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
       </c>
       <c r="D294" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B295" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
       </c>
       <c r="D295" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B296" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
       </c>
       <c r="D296" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B297" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C297" t="s">
         <v>7</v>
       </c>
       <c r="D297" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B298" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
       </c>
       <c r="D298" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B299" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C299" t="s">
         <v>7</v>
       </c>
       <c r="D299" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B300" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
       </c>
       <c r="D300" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B301" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C301" t="s">
         <v>7</v>
       </c>
       <c r="D301" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B302" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
       </c>
       <c r="D302" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B303" t="s">
+        <v>330</v>
+      </c>
+      <c r="C303" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A304" t="s">
+        <v>320</v>
+      </c>
+      <c r="B304" t="s">
+        <v>331</v>
+      </c>
+      <c r="C304" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>320</v>
+      </c>
+      <c r="B305" t="s">
+        <v>332</v>
+      </c>
+      <c r="C305" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>320</v>
+      </c>
+      <c r="B306" t="s">
+        <v>333</v>
+      </c>
+      <c r="C306" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>320</v>
+      </c>
+      <c r="B307" t="s">
         <v>334</v>
       </c>
-      <c r="C303" t="s">
-        <v>7</v>
-      </c>
-      <c r="D303" t="s">
+      <c r="C307" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>320</v>
+      </c>
+      <c r="B308" t="s">
         <v>335</v>
       </c>
+      <c r="C308" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A309" t="s">
+        <v>320</v>
+      </c>
+      <c r="B309" t="s">
+        <v>336</v>
+      </c>
+      <c r="C309" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>320</v>
+      </c>
+      <c r="B310" t="s">
+        <v>337</v>
+      </c>
+      <c r="C310" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A311" t="s">
+        <v>320</v>
+      </c>
+      <c r="B311" t="s">
+        <v>338</v>
+      </c>
+      <c r="C311" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>320</v>
+      </c>
+      <c r="B312" t="s">
+        <v>339</v>
+      </c>
+      <c r="C312" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>320</v>
+      </c>
+      <c r="B313" t="s">
+        <v>340</v>
+      </c>
+      <c r="C313" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A314" t="s">
+        <v>320</v>
+      </c>
+      <c r="B314" t="s">
+        <v>341</v>
+      </c>
+      <c r="C314" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A315" t="s">
+        <v>320</v>
+      </c>
+      <c r="B315" t="s">
+        <v>342</v>
+      </c>
+      <c r="C315" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A316" t="s">
+        <v>320</v>
+      </c>
+      <c r="B316" t="s">
+        <v>343</v>
+      </c>
+      <c r="C316" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A317" t="s">
+        <v>344</v>
+      </c>
+      <c r="B317" t="s">
+        <v>345</v>
+      </c>
+      <c r="C317" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A318" t="s">
+        <v>344</v>
+      </c>
+      <c r="B318" t="s">
+        <v>346</v>
+      </c>
+      <c r="C318" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A319" t="s">
+        <v>344</v>
+      </c>
+      <c r="B319" t="s">
+        <v>347</v>
+      </c>
+      <c r="C319" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A320" t="s">
+        <v>344</v>
+      </c>
+      <c r="B320" t="s">
+        <v>348</v>
+      </c>
+      <c r="C320" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A321" t="s">
+        <v>344</v>
+      </c>
+      <c r="B321" t="s">
+        <v>349</v>
+      </c>
+      <c r="C321" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A322" t="s">
+        <v>344</v>
+      </c>
+      <c r="B322" t="s">
+        <v>350</v>
+      </c>
+      <c r="C322" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A323" t="s">
+        <v>344</v>
+      </c>
+      <c r="B323" t="s">
+        <v>351</v>
+      </c>
+      <c r="C323" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A324" t="s">
+        <v>352</v>
+      </c>
+      <c r="B324" t="s">
+        <v>353</v>
+      </c>
+      <c r="C324" t="s">
+        <v>7</v>
+      </c>
+      <c r="D324" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A325" t="s">
+        <v>352</v>
+      </c>
+      <c r="B325" t="s">
+        <v>354</v>
+      </c>
+      <c r="C325" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>352</v>
+      </c>
+      <c r="B326" t="s">
+        <v>355</v>
+      </c>
+      <c r="C326" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A327" t="s">
+        <v>352</v>
+      </c>
+      <c r="B327" t="s">
+        <v>356</v>
+      </c>
+      <c r="C327" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A328" t="s">
+        <v>352</v>
+      </c>
+      <c r="B328" t="s">
+        <v>357</v>
+      </c>
+      <c r="C328" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>352</v>
+      </c>
+      <c r="B329" t="s">
+        <v>358</v>
+      </c>
+      <c r="C329" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A330" t="s">
+        <v>352</v>
+      </c>
+      <c r="B330" t="s">
+        <v>359</v>
+      </c>
+      <c r="C330" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A331" t="s">
+        <v>352</v>
+      </c>
+      <c r="B331" t="s">
+        <v>360</v>
+      </c>
+      <c r="C331" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A332" t="s">
+        <v>352</v>
+      </c>
+      <c r="B332" t="s">
+        <v>361</v>
+      </c>
+      <c r="C332" t="s">
+        <v>7</v>
+      </c>
+      <c r="D332" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A333" t="s">
+        <v>352</v>
+      </c>
+      <c r="B333" t="s">
+        <v>362</v>
+      </c>
+      <c r="C333" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A334" t="s">
+        <v>352</v>
+      </c>
+      <c r="B334" t="s">
+        <v>363</v>
+      </c>
+      <c r="C334" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A335" t="s">
+        <v>352</v>
+      </c>
+      <c r="B335" t="s">
+        <v>364</v>
+      </c>
+      <c r="C335" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A336" t="s">
+        <v>352</v>
+      </c>
+      <c r="B336" t="s">
+        <v>365</v>
+      </c>
+      <c r="C336" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A337" t="s">
+        <v>352</v>
+      </c>
+      <c r="B337" t="s">
+        <v>366</v>
+      </c>
+      <c r="C337" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A338" t="s">
+        <v>352</v>
+      </c>
+      <c r="B338" t="s">
+        <v>367</v>
+      </c>
+      <c r="C338" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A339" t="s">
+        <v>352</v>
+      </c>
+      <c r="B339" t="s">
+        <v>368</v>
+      </c>
+      <c r="C339" t="s">
+        <v>7</v>
+      </c>
+      <c r="D339" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
+        <v>352</v>
+      </c>
+      <c r="B340" t="s">
+        <v>369</v>
+      </c>
+      <c r="C340" t="s">
+        <v>7</v>
+      </c>
+      <c r="D340" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
+        <v>352</v>
+      </c>
+      <c r="B341" t="s">
+        <v>370</v>
+      </c>
+      <c r="C341" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" t="s">
+        <v>371</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E303"/>
+  <autoFilter ref="A1:E341"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
